--- a/实施周数据-李登林组/1月/2周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/1月/2周/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -2163,6 +2163,27 @@
   </si>
   <si>
     <t>崔天一</t>
+  </si>
+  <si>
+    <t>珍赏甜品</t>
+  </si>
+  <si>
+    <t>珍赏甜品（杭州店）</t>
+  </si>
+  <si>
+    <t>香香</t>
+  </si>
+  <si>
+    <t>上海鸿瑞兴餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>鸿瑞兴</t>
+  </si>
+  <si>
+    <t>鸿瑞兴(柳州店)</t>
+  </si>
+  <si>
+    <t>021-53550177</t>
   </si>
   <si>
     <t>姓名</t>
@@ -2206,10 +2227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
@@ -3305,7 +3326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3480,35 +3501,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4020,440 +4014,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="105" t="s">
+      <c r="I2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="107" t="s">
+      <c r="K2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="108" t="s">
+      <c r="L2" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="109" t="s">
+      <c r="M2" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="110" t="s">
+      <c r="N2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="75"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85">
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86">
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113" t="e">
+      <c r="J3" s="103"/>
+      <c r="K3" s="104" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="114">
+      <c r="L3" s="105">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="115">
+      <c r="M3" s="106">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="116" t="e">
+      <c r="N3" s="107" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91">
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="92">
+      <c r="G4" s="83"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="117"/>
-      <c r="K4" s="113" t="e">
+      <c r="J4" s="108"/>
+      <c r="K4" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="114">
+      <c r="L4" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="115">
+      <c r="M4" s="106">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="116" t="e">
+      <c r="N4" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91">
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="92">
+      <c r="G5" s="83"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="113" t="e">
+      <c r="J5" s="108"/>
+      <c r="K5" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="114">
+      <c r="L5" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="115">
+      <c r="M5" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="116" t="e">
+      <c r="N5" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89" t="s">
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91">
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="92">
+      <c r="G6" s="83"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="117"/>
-      <c r="K6" s="113" t="e">
+      <c r="J6" s="108"/>
+      <c r="K6" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="114">
+      <c r="L6" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="115">
+      <c r="M6" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="116" t="e">
+      <c r="N6" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91">
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="92">
+      <c r="G7" s="83"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="113" t="e">
+      <c r="J7" s="108"/>
+      <c r="K7" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="114">
+      <c r="L7" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="115">
+      <c r="M7" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="116" t="e">
+      <c r="N7" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91">
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="92">
+      <c r="G8" s="83"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="117"/>
-      <c r="K8" s="113" t="e">
+      <c r="J8" s="108"/>
+      <c r="K8" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="114">
+      <c r="L8" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="115">
+      <c r="M8" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="116" t="e">
+      <c r="N8" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="87"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91">
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="92"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="92">
+      <c r="G9" s="83"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="113" t="e">
+      <c r="J9" s="108"/>
+      <c r="K9" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="114">
+      <c r="L9" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="115">
+      <c r="M9" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="116" t="e">
+      <c r="N9" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="93" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96">
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="97">
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="118"/>
-      <c r="K10" s="119" t="e">
+      <c r="J10" s="109"/>
+      <c r="K10" s="110" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="120">
+      <c r="L10" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="121">
+      <c r="M10" s="112">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="122" t="e">
+      <c r="N10" s="113" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101" t="s">
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="102">
+      <c r="D11" s="93">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="102">
+      <c r="E11" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="103">
+      <c r="F11" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="102">
+      <c r="G11" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="102">
+      <c r="H11" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="103">
+      <c r="I11" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="102">
+      <c r="J11" s="93">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="123" t="e">
+      <c r="K11" s="114" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="103">
+      <c r="L11" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="103">
+      <c r="M11" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="124" t="e">
+      <c r="N11" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4472,9 +4466,9 @@
   <dimension ref="A1:P757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D315" sqref="D315"/>
+      <selection pane="bottomLeft" activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8748,7 +8742,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="125" t="s">
+      <c r="O95" s="116" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -16888,43 +16882,43 @@
       <c r="C269" s="18">
         <v>43105</v>
       </c>
-      <c r="D269" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E269" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F269" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G269" s="61" t="s">
+      <c r="D269" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E269" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F269" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G269" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="H269" s="62">
+      <c r="H269" s="16">
         <v>76115725</v>
       </c>
-      <c r="I269" s="61" t="s">
+      <c r="I269" s="42" t="s">
         <v>644</v>
       </c>
-      <c r="J269" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K269" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L269" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M269" s="61" t="s">
+      <c r="J269" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K269" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L269" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M269" s="42" t="s">
         <v>645</v>
       </c>
-      <c r="N269" s="63" t="s">
+      <c r="N269" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O269" s="61">
+      <c r="O269" s="42">
         <v>18972067666</v>
       </c>
-      <c r="P269" s="63" t="s">
+      <c r="P269" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -16938,43 +16932,43 @@
       <c r="C270" s="18">
         <v>43105</v>
       </c>
-      <c r="D270" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E270" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F270" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G270" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H270" s="62">
+      <c r="D270" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E270" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F270" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G270" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H270" s="16">
         <v>76115906</v>
       </c>
-      <c r="I270" s="61" t="s">
+      <c r="I270" s="42" t="s">
         <v>646</v>
       </c>
-      <c r="J270" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K270" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L270" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M270" s="61" t="s">
+      <c r="J270" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K270" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L270" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M270" s="42" t="s">
         <v>647</v>
       </c>
-      <c r="N270" s="63" t="s">
+      <c r="N270" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O270" s="61">
+      <c r="O270" s="42">
         <v>13818685270</v>
       </c>
-      <c r="P270" s="63" t="s">
+      <c r="P270" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -16988,43 +16982,43 @@
       <c r="C271" s="18">
         <v>43105</v>
       </c>
-      <c r="D271" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E271" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F271" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G271" s="61" t="s">
+      <c r="D271" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E271" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F271" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G271" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H271" s="62">
+      <c r="H271" s="16">
         <v>76116165</v>
       </c>
-      <c r="I271" s="61" t="s">
+      <c r="I271" s="42" t="s">
         <v>648</v>
       </c>
-      <c r="J271" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K271" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L271" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M271" s="61" t="s">
+      <c r="J271" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K271" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L271" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M271" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="N271" s="63" t="s">
+      <c r="N271" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O271" s="61">
+      <c r="O271" s="42">
         <v>18351032270</v>
       </c>
-      <c r="P271" s="63" t="s">
+      <c r="P271" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17038,43 +17032,43 @@
       <c r="C272" s="18">
         <v>43105</v>
       </c>
-      <c r="D272" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E272" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F272" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G272" s="61" t="s">
+      <c r="D272" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E272" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F272" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G272" s="42" t="s">
         <v>650</v>
       </c>
-      <c r="H272" s="62">
+      <c r="H272" s="16">
         <v>76116352</v>
       </c>
-      <c r="I272" s="61" t="s">
+      <c r="I272" s="42" t="s">
         <v>651</v>
       </c>
-      <c r="J272" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K272" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L272" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M272" s="61" t="s">
+      <c r="J272" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K272" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L272" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M272" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="N272" s="63" t="s">
+      <c r="N272" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O272" s="61">
+      <c r="O272" s="42">
         <v>18602808857</v>
       </c>
-      <c r="P272" s="63" t="s">
+      <c r="P272" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17088,43 +17082,43 @@
       <c r="C273" s="18">
         <v>43105</v>
       </c>
-      <c r="D273" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E273" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F273" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G273" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H273" s="62">
+      <c r="D273" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E273" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F273" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G273" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H273" s="16">
         <v>76116670</v>
       </c>
-      <c r="I273" s="61" t="s">
+      <c r="I273" s="42" t="s">
         <v>652</v>
       </c>
-      <c r="J273" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K273" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L273" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M273" s="61" t="s">
+      <c r="J273" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K273" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L273" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M273" s="42" t="s">
         <v>653</v>
       </c>
-      <c r="N273" s="63" t="s">
+      <c r="N273" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O273" s="61">
+      <c r="O273" s="42">
         <v>15921618009</v>
       </c>
-      <c r="P273" s="63" t="s">
+      <c r="P273" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17138,43 +17132,43 @@
       <c r="C274" s="18">
         <v>43105</v>
       </c>
-      <c r="D274" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E274" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F274" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G274" s="61" t="s">
+      <c r="D274" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E274" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F274" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G274" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="H274" s="62">
+      <c r="H274" s="16">
         <v>76116691</v>
       </c>
-      <c r="I274" s="61" t="s">
+      <c r="I274" s="42" t="s">
         <v>654</v>
       </c>
-      <c r="J274" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K274" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L274" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M274" s="61" t="s">
+      <c r="J274" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K274" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L274" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M274" s="42" t="s">
         <v>655</v>
       </c>
-      <c r="N274" s="63" t="s">
+      <c r="N274" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O274" s="61">
+      <c r="O274" s="42">
         <v>15396703888</v>
       </c>
-      <c r="P274" s="63" t="s">
+      <c r="P274" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17188,43 +17182,43 @@
       <c r="C275" s="18">
         <v>43105</v>
       </c>
-      <c r="D275" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E275" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F275" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G275" s="61" t="s">
+      <c r="D275" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E275" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F275" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G275" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="H275" s="62">
+      <c r="H275" s="16">
         <v>76117525</v>
       </c>
-      <c r="I275" s="61" t="s">
+      <c r="I275" s="42" t="s">
         <v>656</v>
       </c>
-      <c r="J275" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K275" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L275" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M275" s="61" t="s">
+      <c r="J275" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K275" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L275" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M275" s="42" t="s">
         <v>657</v>
       </c>
-      <c r="N275" s="63" t="s">
+      <c r="N275" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O275" s="61">
+      <c r="O275" s="42">
         <v>13585453315</v>
       </c>
-      <c r="P275" s="63" t="s">
+      <c r="P275" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17238,43 +17232,43 @@
       <c r="C276" s="18">
         <v>43105</v>
       </c>
-      <c r="D276" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E276" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F276" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G276" s="61" t="s">
+      <c r="D276" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E276" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F276" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G276" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="H276" s="62">
+      <c r="H276" s="16">
         <v>76117532</v>
       </c>
-      <c r="I276" s="61" t="s">
+      <c r="I276" s="42" t="s">
         <v>658</v>
       </c>
-      <c r="J276" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K276" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L276" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M276" s="61" t="s">
+      <c r="J276" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K276" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L276" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M276" s="42" t="s">
         <v>659</v>
       </c>
-      <c r="N276" s="63" t="s">
+      <c r="N276" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O276" s="61">
+      <c r="O276" s="42">
         <v>18921907339</v>
       </c>
-      <c r="P276" s="63" t="s">
+      <c r="P276" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17288,43 +17282,43 @@
       <c r="C277" s="18">
         <v>43105</v>
       </c>
-      <c r="D277" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E277" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F277" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G277" s="61" t="s">
+      <c r="D277" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E277" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F277" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G277" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H277" s="62">
+      <c r="H277" s="16">
         <v>76118028</v>
       </c>
-      <c r="I277" s="61" t="s">
+      <c r="I277" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="J277" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K277" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L277" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M277" s="61" t="s">
+      <c r="J277" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K277" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L277" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M277" s="42" t="s">
         <v>661</v>
       </c>
-      <c r="N277" s="63" t="s">
+      <c r="N277" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O277" s="61">
+      <c r="O277" s="42">
         <v>18627764565</v>
       </c>
-      <c r="P277" s="63" t="s">
+      <c r="P277" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17338,43 +17332,43 @@
       <c r="C278" s="18">
         <v>43105</v>
       </c>
-      <c r="D278" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E278" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F278" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G278" s="61" t="s">
+      <c r="D278" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E278" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F278" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G278" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H278" s="62">
+      <c r="H278" s="16">
         <v>76118291</v>
       </c>
-      <c r="I278" s="61" t="s">
+      <c r="I278" s="42" t="s">
         <v>662</v>
       </c>
-      <c r="J278" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K278" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L278" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M278" s="61" t="s">
+      <c r="J278" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K278" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L278" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M278" s="42" t="s">
         <v>663</v>
       </c>
-      <c r="N278" s="63" t="s">
+      <c r="N278" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O278" s="61">
+      <c r="O278" s="42">
         <v>13638686775</v>
       </c>
-      <c r="P278" s="63" t="s">
+      <c r="P278" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17388,43 +17382,43 @@
       <c r="C279" s="18">
         <v>43105</v>
       </c>
-      <c r="D279" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E279" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F279" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G279" s="61" t="s">
+      <c r="D279" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E279" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F279" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G279" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="H279" s="62">
+      <c r="H279" s="16">
         <v>76118925</v>
       </c>
-      <c r="I279" s="61" t="s">
+      <c r="I279" s="42" t="s">
         <v>664</v>
       </c>
-      <c r="J279" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K279" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L279" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M279" s="61" t="s">
+      <c r="J279" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K279" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L279" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M279" s="42" t="s">
         <v>665</v>
       </c>
-      <c r="N279" s="63" t="s">
+      <c r="N279" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O279" s="61">
+      <c r="O279" s="42">
         <v>13636185109</v>
       </c>
-      <c r="P279" s="63" t="s">
+      <c r="P279" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17438,43 +17432,43 @@
       <c r="C280" s="18">
         <v>43105</v>
       </c>
-      <c r="D280" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E280" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F280" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G280" s="61" t="s">
+      <c r="D280" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E280" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F280" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G280" s="42" t="s">
         <v>666</v>
       </c>
-      <c r="H280" s="62">
+      <c r="H280" s="16">
         <v>76119039</v>
       </c>
-      <c r="I280" s="61" t="s">
+      <c r="I280" s="42" t="s">
         <v>667</v>
       </c>
-      <c r="J280" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K280" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L280" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M280" s="61" t="s">
+      <c r="J280" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K280" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L280" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M280" s="42" t="s">
         <v>668</v>
       </c>
-      <c r="N280" s="63" t="s">
+      <c r="N280" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O280" s="61">
+      <c r="O280" s="42">
         <v>18809501886</v>
       </c>
-      <c r="P280" s="63" t="s">
+      <c r="P280" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17488,43 +17482,43 @@
       <c r="C281" s="18">
         <v>43105</v>
       </c>
-      <c r="D281" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E281" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F281" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G281" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H281" s="62">
+      <c r="D281" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E281" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F281" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G281" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H281" s="16">
         <v>76119301</v>
       </c>
-      <c r="I281" s="61" t="s">
+      <c r="I281" s="42" t="s">
         <v>669</v>
       </c>
-      <c r="J281" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K281" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L281" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M281" s="61" t="s">
+      <c r="J281" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K281" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L281" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M281" s="42" t="s">
         <v>670</v>
       </c>
-      <c r="N281" s="63" t="s">
+      <c r="N281" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O281" s="61">
+      <c r="O281" s="42">
         <v>17621822232</v>
       </c>
-      <c r="P281" s="63" t="s">
+      <c r="P281" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17538,43 +17532,43 @@
       <c r="C282" s="18">
         <v>43105</v>
       </c>
-      <c r="D282" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E282" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F282" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G282" s="61" t="s">
+      <c r="D282" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E282" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F282" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G282" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="H282" s="62">
+      <c r="H282" s="16">
         <v>76119326</v>
       </c>
-      <c r="I282" s="61" t="s">
+      <c r="I282" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="J282" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K282" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L282" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M282" s="61" t="s">
+      <c r="J282" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K282" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L282" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M282" s="42" t="s">
         <v>672</v>
       </c>
-      <c r="N282" s="63" t="s">
+      <c r="N282" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O282" s="61">
+      <c r="O282" s="42">
         <v>18913779066</v>
       </c>
-      <c r="P282" s="63" t="s">
+      <c r="P282" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17588,43 +17582,43 @@
       <c r="C283" s="18">
         <v>43105</v>
       </c>
-      <c r="D283" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E283" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F283" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G283" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H283" s="62">
+      <c r="D283" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E283" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F283" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G283" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H283" s="16">
         <v>76119369</v>
       </c>
-      <c r="I283" s="61" t="s">
+      <c r="I283" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="J283" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K283" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L283" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M283" s="61" t="s">
+      <c r="J283" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K283" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L283" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M283" s="42" t="s">
         <v>674</v>
       </c>
-      <c r="N283" s="63" t="s">
+      <c r="N283" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O283" s="61">
+      <c r="O283" s="42">
         <v>18101869616</v>
       </c>
-      <c r="P283" s="63" t="s">
+      <c r="P283" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17638,43 +17632,43 @@
       <c r="C284" s="18">
         <v>43105</v>
       </c>
-      <c r="D284" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E284" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F284" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G284" s="61" t="s">
+      <c r="D284" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E284" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F284" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G284" s="42" t="s">
         <v>675</v>
       </c>
-      <c r="H284" s="62">
+      <c r="H284" s="16">
         <v>76119620</v>
       </c>
-      <c r="I284" s="61" t="s">
+      <c r="I284" s="42" t="s">
         <v>676</v>
       </c>
-      <c r="J284" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K284" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L284" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M284" s="61" t="s">
+      <c r="J284" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K284" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L284" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M284" s="42" t="s">
         <v>677</v>
       </c>
-      <c r="N284" s="63" t="s">
+      <c r="N284" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O284" s="61">
+      <c r="O284" s="42">
         <v>13051278982</v>
       </c>
-      <c r="P284" s="63" t="s">
+      <c r="P284" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17688,43 +17682,43 @@
       <c r="C285" s="18">
         <v>43105</v>
       </c>
-      <c r="D285" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E285" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F285" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G285" s="61" t="s">
+      <c r="D285" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E285" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F285" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G285" s="42" t="s">
         <v>678</v>
       </c>
-      <c r="H285" s="62">
+      <c r="H285" s="16">
         <v>76119721</v>
       </c>
-      <c r="I285" s="61" t="s">
+      <c r="I285" s="42" t="s">
         <v>679</v>
       </c>
-      <c r="J285" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K285" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L285" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M285" s="61" t="s">
+      <c r="J285" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K285" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L285" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M285" s="42" t="s">
         <v>680</v>
       </c>
-      <c r="N285" s="63" t="s">
+      <c r="N285" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O285" s="61">
+      <c r="O285" s="42">
         <v>18355520823</v>
       </c>
-      <c r="P285" s="63" t="s">
+      <c r="P285" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17738,43 +17732,43 @@
       <c r="C286" s="18">
         <v>43105</v>
       </c>
-      <c r="D286" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E286" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F286" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G286" s="61" t="s">
+      <c r="D286" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E286" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F286" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G286" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H286" s="62">
+      <c r="H286" s="16">
         <v>76120023</v>
       </c>
-      <c r="I286" s="61" t="s">
+      <c r="I286" s="42" t="s">
         <v>681</v>
       </c>
-      <c r="J286" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K286" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L286" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M286" s="61" t="s">
+      <c r="J286" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K286" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L286" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M286" s="42" t="s">
         <v>682</v>
       </c>
-      <c r="N286" s="63" t="s">
+      <c r="N286" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O286" s="61">
+      <c r="O286" s="42">
         <v>15068526265</v>
       </c>
-      <c r="P286" s="63" t="s">
+      <c r="P286" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17788,43 +17782,43 @@
       <c r="C287" s="18">
         <v>43105</v>
       </c>
-      <c r="D287" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E287" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F287" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G287" s="61" t="s">
+      <c r="D287" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E287" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F287" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G287" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="H287" s="62">
+      <c r="H287" s="16">
         <v>76120101</v>
       </c>
-      <c r="I287" s="61" t="s">
+      <c r="I287" s="42" t="s">
         <v>683</v>
       </c>
-      <c r="J287" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K287" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L287" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M287" s="61" t="s">
+      <c r="J287" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K287" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L287" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M287" s="42" t="s">
         <v>684</v>
       </c>
-      <c r="N287" s="63" t="s">
+      <c r="N287" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O287" s="61">
+      <c r="O287" s="42">
         <v>13776694457</v>
       </c>
-      <c r="P287" s="63" t="s">
+      <c r="P287" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17838,43 +17832,43 @@
       <c r="C288" s="18">
         <v>43105</v>
       </c>
-      <c r="D288" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E288" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F288" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G288" s="61" t="s">
+      <c r="D288" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E288" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F288" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G288" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="H288" s="62">
+      <c r="H288" s="16">
         <v>76122022</v>
       </c>
-      <c r="I288" s="61" t="s">
+      <c r="I288" s="42" t="s">
         <v>685</v>
       </c>
-      <c r="J288" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K288" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L288" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M288" s="61" t="s">
+      <c r="J288" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K288" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L288" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M288" s="42" t="s">
         <v>686</v>
       </c>
-      <c r="N288" s="63" t="s">
+      <c r="N288" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O288" s="61">
+      <c r="O288" s="42">
         <v>13576107314</v>
       </c>
-      <c r="P288" s="63" t="s">
+      <c r="P288" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17891,37 +17885,37 @@
       <c r="D289" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E289" s="63" t="s">
+      <c r="E289" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F289" s="63" t="s">
+      <c r="F289" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G289" s="61" t="s">
+      <c r="G289" s="42" t="s">
         <v>626</v>
       </c>
-      <c r="H289" s="61">
+      <c r="H289" s="42">
         <v>76113672</v>
       </c>
-      <c r="I289" s="61" t="s">
+      <c r="I289" s="42" t="s">
         <v>627</v>
       </c>
-      <c r="J289" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K289" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L289" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M289" s="61" t="s">
+      <c r="J289" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K289" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L289" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M289" s="42" t="s">
         <v>628</v>
       </c>
-      <c r="N289" s="63" t="s">
+      <c r="N289" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O289" s="61">
+      <c r="O289" s="42">
         <v>18523502323</v>
       </c>
       <c r="P289" s="15" t="s">
@@ -17941,37 +17935,37 @@
       <c r="D290" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E290" s="63" t="s">
+      <c r="E290" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F290" s="63" t="s">
+      <c r="F290" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G290" s="61" t="s">
+      <c r="G290" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H290" s="61">
+      <c r="H290" s="42">
         <v>76116101</v>
       </c>
-      <c r="I290" s="69" t="s">
+      <c r="I290" s="49" t="s">
         <v>629</v>
       </c>
-      <c r="J290" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K290" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L290" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M290" s="61" t="s">
+      <c r="J290" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K290" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L290" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M290" s="42" t="s">
         <v>630</v>
       </c>
-      <c r="N290" s="63" t="s">
+      <c r="N290" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O290" s="61">
+      <c r="O290" s="42">
         <v>18657929290</v>
       </c>
       <c r="P290" s="15" t="s">
@@ -17991,37 +17985,37 @@
       <c r="D291" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E291" s="63" t="s">
+      <c r="E291" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F291" s="63" t="s">
+      <c r="F291" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G291" s="61" t="s">
+      <c r="G291" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H291" s="61">
+      <c r="H291" s="42">
         <v>76116102</v>
       </c>
-      <c r="I291" s="69" t="s">
+      <c r="I291" s="49" t="s">
         <v>631</v>
       </c>
-      <c r="J291" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K291" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L291" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M291" s="61" t="s">
+      <c r="J291" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K291" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L291" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M291" s="42" t="s">
         <v>632</v>
       </c>
-      <c r="N291" s="63" t="s">
+      <c r="N291" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O291" s="61">
+      <c r="O291" s="42">
         <v>13036101739</v>
       </c>
       <c r="P291" s="15" t="s">
@@ -18041,37 +18035,37 @@
       <c r="D292" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E292" s="63" t="s">
+      <c r="E292" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F292" s="63" t="s">
+      <c r="F292" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G292" s="61" t="s">
+      <c r="G292" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="H292" s="61">
+      <c r="H292" s="42">
         <v>76116103</v>
       </c>
-      <c r="I292" s="69" t="s">
+      <c r="I292" s="49" t="s">
         <v>687</v>
       </c>
-      <c r="J292" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K292" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L292" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M292" s="61" t="s">
+      <c r="J292" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K292" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L292" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M292" s="42" t="s">
         <v>688</v>
       </c>
-      <c r="N292" s="63" t="s">
+      <c r="N292" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O292" s="61">
+      <c r="O292" s="42">
         <v>18651877708</v>
       </c>
       <c r="P292" s="15" t="s">
@@ -18091,37 +18085,37 @@
       <c r="D293" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E293" s="63" t="s">
+      <c r="E293" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F293" s="63" t="s">
+      <c r="F293" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G293" s="61" t="s">
+      <c r="G293" s="42" t="s">
         <v>650</v>
       </c>
-      <c r="H293" s="61">
+      <c r="H293" s="42">
         <v>76116720</v>
       </c>
-      <c r="I293" s="69" t="s">
+      <c r="I293" s="49" t="s">
         <v>689</v>
       </c>
-      <c r="J293" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K293" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L293" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M293" s="61" t="s">
+      <c r="J293" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K293" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L293" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M293" s="42" t="s">
         <v>690</v>
       </c>
-      <c r="N293" s="63" t="s">
+      <c r="N293" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O293" s="61">
+      <c r="O293" s="42">
         <v>15828549091</v>
       </c>
       <c r="P293" s="15" t="s">
@@ -18141,37 +18135,37 @@
       <c r="D294" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E294" s="63" t="s">
+      <c r="E294" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F294" s="63" t="s">
+      <c r="F294" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G294" s="61" t="s">
+      <c r="G294" s="42" t="s">
         <v>675</v>
       </c>
-      <c r="H294" s="61">
+      <c r="H294" s="42">
         <v>76118932</v>
       </c>
-      <c r="I294" s="69" t="s">
+      <c r="I294" s="49" t="s">
         <v>691</v>
       </c>
-      <c r="J294" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K294" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L294" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M294" s="61" t="s">
+      <c r="J294" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K294" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L294" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M294" s="42" t="s">
         <v>692</v>
       </c>
-      <c r="N294" s="63" t="s">
+      <c r="N294" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O294" s="61">
+      <c r="O294" s="42">
         <v>15810099357</v>
       </c>
       <c r="P294" s="15" t="s">
@@ -18191,37 +18185,37 @@
       <c r="D295" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E295" s="63" t="s">
+      <c r="E295" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F295" s="63" t="s">
+      <c r="F295" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G295" s="61" t="s">
+      <c r="G295" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="H295" s="61">
+      <c r="H295" s="42">
         <v>76118953</v>
       </c>
-      <c r="I295" s="69" t="s">
+      <c r="I295" s="49" t="s">
         <v>693</v>
       </c>
-      <c r="J295" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K295" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L295" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M295" s="61" t="s">
+      <c r="J295" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K295" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L295" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M295" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="N295" s="63" t="s">
+      <c r="N295" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O295" s="61">
+      <c r="O295" s="42">
         <v>15878899766</v>
       </c>
       <c r="P295" s="15" t="s">
@@ -18241,37 +18235,37 @@
       <c r="D296" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E296" s="63" t="s">
+      <c r="E296" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F296" s="63" t="s">
+      <c r="F296" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G296" s="64" t="s">
+      <c r="G296" s="16" t="s">
         <v>695</v>
       </c>
-      <c r="H296" s="65">
+      <c r="H296" s="60">
         <v>76119726</v>
       </c>
-      <c r="I296" s="70" t="s">
+      <c r="I296" s="61" t="s">
         <v>696</v>
       </c>
-      <c r="J296" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K296" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L296" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M296" s="64" t="s">
+      <c r="J296" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K296" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L296" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M296" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="N296" s="63" t="s">
+      <c r="N296" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O296" s="64">
+      <c r="O296" s="16">
         <v>13510607237</v>
       </c>
       <c r="P296" s="15" t="s">
@@ -18291,66 +18285,146 @@
       <c r="D297" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E297" s="63" t="s">
+      <c r="E297" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F297" s="63" t="s">
+      <c r="F297" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G297" s="64" t="s">
+      <c r="G297" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="H297" s="65">
+      <c r="H297" s="60">
         <v>76119718</v>
       </c>
-      <c r="I297" s="62" t="s">
+      <c r="I297" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="J297" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K297" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L297" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M297" s="64" t="s">
+      <c r="J297" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K297" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L297" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M297" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="N297" s="63" t="s">
+      <c r="N297" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O297" s="64">
+      <c r="O297" s="16">
         <v>18616721701</v>
       </c>
       <c r="P297" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="298" spans="1:16">
-      <c r="A298" s="8"/>
-      <c r="B298" s="66"/>
-      <c r="C298" s="18"/>
-      <c r="D298" s="45"/>
-      <c r="K298" s="16"/>
-      <c r="L298" s="15"/>
-      <c r="O298" s="12"/>
-      <c r="P298" s="15"/>
-    </row>
-    <row r="299" spans="1:16">
-      <c r="A299" s="8"/>
-      <c r="B299" s="66"/>
-      <c r="C299" s="18"/>
-      <c r="D299" s="45"/>
-      <c r="K299" s="16"/>
-      <c r="L299" s="15"/>
-      <c r="O299" s="12"/>
-      <c r="P299" s="15"/>
+    <row r="298" s="5" customFormat="1" spans="1:16">
+      <c r="A298" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B298" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C298" s="18">
+        <v>43110</v>
+      </c>
+      <c r="D298" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E298" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="F298" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="G298" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H298" s="60">
+        <v>76121738</v>
+      </c>
+      <c r="I298" s="61" t="s">
+        <v>701</v>
+      </c>
+      <c r="J298" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K298" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L298" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M298" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="N298" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O298" s="16">
+        <v>13109570608</v>
+      </c>
+      <c r="P298" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="299" s="5" customFormat="1" spans="1:16">
+      <c r="A299" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B299" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C299" s="18">
+        <v>43110</v>
+      </c>
+      <c r="D299" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E299" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="F299" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="G299" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H299" s="60">
+        <v>76022625</v>
+      </c>
+      <c r="I299" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="J299" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K299" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L299" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M299" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="N299" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O299" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="P299" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="300" spans="1:16">
       <c r="A300" s="8"/>
-      <c r="B300" s="66"/>
+      <c r="B300" s="21"/>
       <c r="C300" s="18"/>
       <c r="D300" s="45"/>
       <c r="K300" s="16"/>
@@ -18360,7 +18434,7 @@
     </row>
     <row r="301" spans="1:16">
       <c r="A301" s="8"/>
-      <c r="B301" s="66"/>
+      <c r="B301" s="21"/>
       <c r="C301" s="18"/>
       <c r="D301" s="45"/>
       <c r="K301" s="16"/>
@@ -18370,7 +18444,7 @@
     </row>
     <row r="302" spans="1:16">
       <c r="A302" s="8"/>
-      <c r="B302" s="66"/>
+      <c r="B302" s="21"/>
       <c r="C302" s="18"/>
       <c r="D302" s="45"/>
       <c r="K302" s="16"/>
@@ -18380,7 +18454,7 @@
     </row>
     <row r="303" spans="1:16">
       <c r="A303" s="8"/>
-      <c r="B303" s="66"/>
+      <c r="B303" s="21"/>
       <c r="C303" s="18"/>
       <c r="D303" s="45"/>
       <c r="K303" s="16"/>
@@ -18390,7 +18464,7 @@
     </row>
     <row r="304" spans="1:16">
       <c r="A304" s="8"/>
-      <c r="B304" s="66"/>
+      <c r="B304" s="21"/>
       <c r="C304" s="18"/>
       <c r="D304" s="45"/>
       <c r="K304" s="16"/>
@@ -18400,7 +18474,7 @@
     </row>
     <row r="305" spans="1:16">
       <c r="A305" s="8"/>
-      <c r="B305" s="66"/>
+      <c r="B305" s="21"/>
       <c r="C305" s="18"/>
       <c r="D305" s="45"/>
       <c r="K305" s="16"/>
@@ -18410,7 +18484,7 @@
     </row>
     <row r="306" spans="1:16">
       <c r="A306" s="8"/>
-      <c r="B306" s="66"/>
+      <c r="B306" s="21"/>
       <c r="C306" s="18"/>
       <c r="D306" s="45"/>
       <c r="K306" s="16"/>
@@ -18420,7 +18494,7 @@
     </row>
     <row r="307" spans="1:16">
       <c r="A307" s="8"/>
-      <c r="B307" s="66"/>
+      <c r="B307" s="21"/>
       <c r="C307" s="18"/>
       <c r="D307" s="45"/>
       <c r="K307" s="16"/>
@@ -18430,7 +18504,7 @@
     </row>
     <row r="308" spans="1:16">
       <c r="A308" s="8"/>
-      <c r="B308" s="66"/>
+      <c r="B308" s="21"/>
       <c r="C308" s="18"/>
       <c r="D308" s="45"/>
       <c r="K308" s="16"/>
@@ -18440,7 +18514,7 @@
     </row>
     <row r="309" spans="1:16">
       <c r="A309" s="8"/>
-      <c r="B309" s="66"/>
+      <c r="B309" s="21"/>
       <c r="C309" s="18"/>
       <c r="D309" s="45"/>
       <c r="K309" s="16"/>
@@ -18450,7 +18524,7 @@
     </row>
     <row r="310" spans="1:16">
       <c r="A310" s="8"/>
-      <c r="B310" s="66"/>
+      <c r="B310" s="21"/>
       <c r="C310" s="18"/>
       <c r="D310" s="45"/>
       <c r="K310" s="16"/>
@@ -18460,7 +18534,7 @@
     </row>
     <row r="311" spans="1:16">
       <c r="A311" s="8"/>
-      <c r="B311" s="66"/>
+      <c r="B311" s="21"/>
       <c r="C311" s="18"/>
       <c r="D311" s="45"/>
       <c r="K311" s="16"/>
@@ -18470,7 +18544,7 @@
     </row>
     <row r="312" spans="1:16">
       <c r="A312" s="8"/>
-      <c r="B312" s="66"/>
+      <c r="B312" s="21"/>
       <c r="C312" s="18"/>
       <c r="D312" s="45"/>
       <c r="K312" s="16"/>
@@ -18480,7 +18554,7 @@
     </row>
     <row r="313" spans="1:16">
       <c r="A313" s="8"/>
-      <c r="B313" s="66"/>
+      <c r="B313" s="21"/>
       <c r="C313" s="18"/>
       <c r="D313" s="45"/>
       <c r="K313" s="16"/>
@@ -18490,7 +18564,7 @@
     </row>
     <row r="314" spans="1:16">
       <c r="A314" s="8"/>
-      <c r="B314" s="66"/>
+      <c r="B314" s="21"/>
       <c r="C314" s="18"/>
       <c r="D314" s="45"/>
       <c r="K314" s="16"/>
@@ -18500,7 +18574,7 @@
     </row>
     <row r="315" spans="1:16">
       <c r="A315" s="8"/>
-      <c r="B315" s="66"/>
+      <c r="B315" s="21"/>
       <c r="C315" s="18"/>
       <c r="D315" s="45"/>
       <c r="K315" s="16"/>
@@ -18510,7 +18584,7 @@
     </row>
     <row r="316" spans="1:16">
       <c r="A316" s="8"/>
-      <c r="B316" s="66"/>
+      <c r="B316" s="21"/>
       <c r="C316" s="18"/>
       <c r="D316" s="45"/>
       <c r="K316" s="16"/>
@@ -18520,41 +18594,41 @@
     </row>
     <row r="317" spans="1:16">
       <c r="A317" s="22"/>
-      <c r="B317" s="67"/>
+      <c r="B317" s="21"/>
       <c r="O317" s="12"/>
       <c r="P317" s="8"/>
     </row>
     <row r="318" spans="1:16">
       <c r="A318" s="22"/>
-      <c r="B318" s="67"/>
+      <c r="B318" s="21"/>
       <c r="O318" s="12"/>
       <c r="P318" s="8"/>
     </row>
     <row r="319" spans="1:16">
       <c r="A319" s="22"/>
-      <c r="B319" s="67"/>
+      <c r="B319" s="21"/>
       <c r="O319" s="12"/>
       <c r="P319" s="8"/>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="22"/>
-      <c r="B320" s="67"/>
+      <c r="B320" s="21"/>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="22"/>
-      <c r="B321" s="67"/>
+      <c r="B321" s="21"/>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="22"/>
-      <c r="B322" s="67"/>
+      <c r="B322" s="21"/>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="22"/>
-      <c r="B323" s="67"/>
+      <c r="B323" s="21"/>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="22"/>
-      <c r="B324" s="67"/>
+      <c r="B324" s="21"/>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="22"/>
@@ -18913,7 +18987,7 @@
       <c r="B413" s="21"/>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="71"/>
+      <c r="A414" s="62"/>
       <c r="B414" s="21"/>
     </row>
     <row r="415" spans="1:2">
@@ -18985,7 +19059,7 @@
       <c r="B431" s="21"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="71"/>
+      <c r="A432" s="62"/>
       <c r="B432" s="21"/>
     </row>
     <row r="433" spans="1:2">
@@ -18993,7 +19067,7 @@
       <c r="B433" s="21"/>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="71"/>
+      <c r="A434" s="62"/>
       <c r="B434" s="21"/>
     </row>
     <row r="435" spans="1:2">
@@ -19001,7 +19075,7 @@
       <c r="B435" s="21"/>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="71"/>
+      <c r="A436" s="62"/>
       <c r="B436" s="21"/>
     </row>
     <row r="437" spans="1:2">
@@ -19009,7 +19083,7 @@
       <c r="B437" s="21"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="71"/>
+      <c r="A438" s="62"/>
       <c r="B438" s="21"/>
     </row>
     <row r="439" spans="1:2">
@@ -19017,7 +19091,7 @@
       <c r="B439" s="21"/>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="71"/>
+      <c r="A440" s="62"/>
       <c r="B440" s="21"/>
     </row>
     <row r="441" spans="1:2">
@@ -19025,7 +19099,7 @@
       <c r="B441" s="21"/>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="71"/>
+      <c r="A442" s="62"/>
       <c r="B442" s="21"/>
     </row>
     <row r="443" spans="1:2">
@@ -19033,7 +19107,7 @@
       <c r="B443" s="21"/>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="71"/>
+      <c r="A444" s="62"/>
       <c r="B444" s="21"/>
     </row>
     <row r="445" spans="1:2">
@@ -19041,7 +19115,7 @@
       <c r="B445" s="21"/>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="71"/>
+      <c r="A446" s="62"/>
       <c r="B446" s="21"/>
     </row>
     <row r="447" spans="1:2">
@@ -19049,7 +19123,7 @@
       <c r="B447" s="21"/>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="71"/>
+      <c r="A448" s="62"/>
       <c r="B448" s="21"/>
     </row>
     <row r="449" spans="1:2">
@@ -19057,7 +19131,7 @@
       <c r="B449" s="21"/>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="71"/>
+      <c r="A450" s="62"/>
       <c r="B450" s="21"/>
     </row>
     <row r="451" spans="1:2">
@@ -19065,7 +19139,7 @@
       <c r="B451" s="21"/>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="71"/>
+      <c r="A452" s="62"/>
       <c r="B452" s="21"/>
     </row>
     <row r="453" spans="1:2">
@@ -19073,7 +19147,7 @@
       <c r="B453" s="21"/>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="71"/>
+      <c r="A454" s="62"/>
       <c r="B454" s="21"/>
     </row>
     <row r="455" spans="1:2">
@@ -19081,7 +19155,7 @@
       <c r="B455" s="21"/>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="71"/>
+      <c r="A456" s="62"/>
       <c r="B456" s="21"/>
     </row>
     <row r="457" spans="1:2">
@@ -19089,7 +19163,7 @@
       <c r="B457" s="21"/>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="71"/>
+      <c r="A458" s="62"/>
       <c r="B458" s="21"/>
     </row>
     <row r="459" spans="1:2">
@@ -19097,7 +19171,7 @@
       <c r="B459" s="21"/>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="71"/>
+      <c r="A460" s="62"/>
       <c r="B460" s="21"/>
     </row>
     <row r="461" spans="1:2">
@@ -19105,7 +19179,7 @@
       <c r="B461" s="21"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="71"/>
+      <c r="A462" s="62"/>
       <c r="B462" s="21"/>
     </row>
     <row r="463" spans="1:2">
@@ -19113,7 +19187,7 @@
       <c r="B463" s="21"/>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="71"/>
+      <c r="A464" s="62"/>
       <c r="B464" s="21"/>
     </row>
     <row r="465" spans="1:2">
@@ -19121,7 +19195,7 @@
       <c r="B465" s="21"/>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="71"/>
+      <c r="A466" s="62"/>
       <c r="B466" s="21"/>
     </row>
     <row r="467" spans="1:2">
@@ -19129,7 +19203,7 @@
       <c r="B467" s="21"/>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="71"/>
+      <c r="A468" s="62"/>
       <c r="B468" s="21"/>
     </row>
     <row r="469" spans="1:2">
@@ -19137,7 +19211,7 @@
       <c r="B469" s="21"/>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="71"/>
+      <c r="A470" s="62"/>
       <c r="B470" s="21"/>
     </row>
     <row r="471" spans="1:2">
@@ -19145,7 +19219,7 @@
       <c r="B471" s="21"/>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="71"/>
+      <c r="A472" s="62"/>
       <c r="B472" s="21"/>
     </row>
     <row r="473" spans="1:2">
@@ -19153,7 +19227,7 @@
       <c r="B473" s="21"/>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="71"/>
+      <c r="A474" s="62"/>
       <c r="B474" s="21"/>
     </row>
     <row r="475" spans="1:2">
@@ -19161,7 +19235,7 @@
       <c r="B475" s="21"/>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="71"/>
+      <c r="A476" s="62"/>
       <c r="B476" s="21"/>
     </row>
     <row r="477" spans="1:2">
@@ -19169,7 +19243,7 @@
       <c r="B477" s="21"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="71"/>
+      <c r="A478" s="62"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
@@ -19177,7 +19251,7 @@
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="71"/>
+      <c r="A480" s="62"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
@@ -19185,7 +19259,7 @@
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="71"/>
+      <c r="A482" s="62"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
@@ -19193,7 +19267,7 @@
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="71"/>
+      <c r="A484" s="62"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
@@ -19201,7 +19275,7 @@
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="71"/>
+      <c r="A486" s="62"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
@@ -19209,7 +19283,7 @@
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="71"/>
+      <c r="A488" s="62"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
@@ -19217,7 +19291,7 @@
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="71"/>
+      <c r="A490" s="62"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
@@ -19225,7 +19299,7 @@
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="71"/>
+      <c r="A492" s="62"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
@@ -19233,7 +19307,7 @@
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="71"/>
+      <c r="A494" s="62"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
@@ -19241,7 +19315,7 @@
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="71"/>
+      <c r="A496" s="62"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
@@ -19249,7 +19323,7 @@
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="71"/>
+      <c r="A498" s="62"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
@@ -19257,7 +19331,7 @@
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="71"/>
+      <c r="A500" s="62"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
@@ -19265,7 +19339,7 @@
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="71"/>
+      <c r="A502" s="62"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
@@ -19273,7 +19347,7 @@
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="71"/>
+      <c r="A504" s="62"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
@@ -19281,7 +19355,7 @@
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="71"/>
+      <c r="A506" s="62"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
@@ -19289,7 +19363,7 @@
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="71"/>
+      <c r="A508" s="62"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
@@ -19297,7 +19371,7 @@
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="71"/>
+      <c r="A510" s="62"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
@@ -19305,7 +19379,7 @@
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="71"/>
+      <c r="A512" s="62"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
@@ -19313,7 +19387,7 @@
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="71"/>
+      <c r="A514" s="62"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
@@ -19321,7 +19395,7 @@
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="71"/>
+      <c r="A516" s="62"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
@@ -19329,7 +19403,7 @@
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="71"/>
+      <c r="A518" s="62"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
@@ -19337,7 +19411,7 @@
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="71"/>
+      <c r="A520" s="62"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
@@ -19345,7 +19419,7 @@
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="71"/>
+      <c r="A522" s="62"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
@@ -19353,7 +19427,7 @@
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="71"/>
+      <c r="A524" s="62"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
@@ -19361,7 +19435,7 @@
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="71"/>
+      <c r="A526" s="62"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
@@ -19369,7 +19443,7 @@
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="71"/>
+      <c r="A528" s="62"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
@@ -19377,7 +19451,7 @@
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="71"/>
+      <c r="A530" s="62"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
@@ -19385,7 +19459,7 @@
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="71"/>
+      <c r="A532" s="62"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
@@ -19393,7 +19467,7 @@
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="71"/>
+      <c r="A534" s="62"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
@@ -19401,7 +19475,7 @@
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="71"/>
+      <c r="A536" s="62"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
@@ -19409,7 +19483,7 @@
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="71"/>
+      <c r="A538" s="62"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
@@ -19417,7 +19491,7 @@
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="71"/>
+      <c r="A540" s="62"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
@@ -19425,7 +19499,7 @@
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="71"/>
+      <c r="A542" s="62"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
@@ -19433,7 +19507,7 @@
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="71"/>
+      <c r="A544" s="62"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
@@ -19441,7 +19515,7 @@
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="71"/>
+      <c r="A546" s="62"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
@@ -19449,7 +19523,7 @@
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="71"/>
+      <c r="A548" s="62"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
@@ -19457,7 +19531,7 @@
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="71"/>
+      <c r="A550" s="62"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
@@ -19465,7 +19539,7 @@
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="71"/>
+      <c r="A552" s="62"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
@@ -19473,7 +19547,7 @@
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="71"/>
+      <c r="A554" s="62"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
@@ -19481,7 +19555,7 @@
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="71"/>
+      <c r="A556" s="62"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
@@ -19489,7 +19563,7 @@
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="71"/>
+      <c r="A558" s="62"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
@@ -19497,7 +19571,7 @@
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="71"/>
+      <c r="A560" s="62"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
@@ -19505,7 +19579,7 @@
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="71"/>
+      <c r="A562" s="62"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
@@ -19513,7 +19587,7 @@
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="71"/>
+      <c r="A564" s="62"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
@@ -19521,7 +19595,7 @@
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="71"/>
+      <c r="A566" s="62"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
@@ -19529,7 +19603,7 @@
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="71"/>
+      <c r="A568" s="62"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
@@ -19537,7 +19611,7 @@
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="71"/>
+      <c r="A570" s="62"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
@@ -19545,7 +19619,7 @@
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="71"/>
+      <c r="A572" s="62"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
@@ -19553,7 +19627,7 @@
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="71"/>
+      <c r="A574" s="62"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
@@ -19561,7 +19635,7 @@
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="71"/>
+      <c r="A576" s="62"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
@@ -19569,7 +19643,7 @@
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="71"/>
+      <c r="A578" s="62"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
@@ -19577,7 +19651,7 @@
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="71"/>
+      <c r="A580" s="62"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
@@ -19585,7 +19659,7 @@
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="71"/>
+      <c r="A582" s="62"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
@@ -19593,7 +19667,7 @@
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="71"/>
+      <c r="A584" s="62"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
@@ -19601,7 +19675,7 @@
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="71"/>
+      <c r="A586" s="62"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
@@ -19609,7 +19683,7 @@
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="71"/>
+      <c r="A588" s="62"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
@@ -19617,7 +19691,7 @@
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="71"/>
+      <c r="A590" s="62"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
@@ -19625,7 +19699,7 @@
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="71"/>
+      <c r="A592" s="62"/>
       <c r="B592" s="21"/>
     </row>
     <row r="593" spans="1:2">
@@ -19633,7 +19707,7 @@
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="71"/>
+      <c r="A594" s="62"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
@@ -19641,7 +19715,7 @@
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="71"/>
+      <c r="A596" s="62"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
@@ -19649,7 +19723,7 @@
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="71"/>
+      <c r="A598" s="62"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
@@ -19657,7 +19731,7 @@
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="71"/>
+      <c r="A600" s="62"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
@@ -19665,7 +19739,7 @@
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="71"/>
+      <c r="A602" s="62"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
@@ -19673,7 +19747,7 @@
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="71"/>
+      <c r="A604" s="62"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
@@ -19681,7 +19755,7 @@
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="71"/>
+      <c r="A606" s="62"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
@@ -19689,7 +19763,7 @@
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="71"/>
+      <c r="A608" s="62"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
@@ -19697,7 +19771,7 @@
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="71"/>
+      <c r="A610" s="62"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
@@ -19705,7 +19779,7 @@
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="71"/>
+      <c r="A612" s="62"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
@@ -19713,7 +19787,7 @@
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="71"/>
+      <c r="A614" s="62"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
@@ -19721,7 +19795,7 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="71"/>
+      <c r="A616" s="62"/>
       <c r="B616" s="15"/>
     </row>
     <row r="617" spans="1:2">
@@ -19729,421 +19803,421 @@
       <c r="B617" s="15"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="72"/>
+      <c r="A618" s="63"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="72"/>
+      <c r="A620" s="63"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="72"/>
+      <c r="A622" s="63"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="72"/>
+      <c r="A624" s="63"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="72"/>
+      <c r="A626" s="63"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="72"/>
+      <c r="A628" s="63"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="72"/>
+      <c r="A630" s="63"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="72"/>
+      <c r="A632" s="63"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="72"/>
+      <c r="A634" s="63"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="72"/>
+      <c r="A636" s="63"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="72"/>
+      <c r="A638" s="63"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="72"/>
+      <c r="A640" s="63"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="72"/>
+      <c r="A642" s="63"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="72"/>
+      <c r="A644" s="63"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="72"/>
+      <c r="A646" s="63"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="72"/>
+      <c r="A648" s="63"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="72"/>
+      <c r="A650" s="63"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="72"/>
+      <c r="A652" s="63"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="72"/>
+      <c r="A654" s="63"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="72"/>
+      <c r="A656" s="63"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="72"/>
+      <c r="A658" s="63"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="72"/>
+      <c r="A660" s="63"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="72"/>
+      <c r="A662" s="63"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="72"/>
+      <c r="A664" s="63"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="72"/>
+      <c r="A666" s="63"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="72"/>
+      <c r="A668" s="63"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="72"/>
+      <c r="A670" s="63"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="72"/>
+      <c r="A672" s="63"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="72"/>
+      <c r="A674" s="63"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="72"/>
+      <c r="A676" s="63"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="72"/>
+      <c r="A678" s="63"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="72"/>
+      <c r="A680" s="63"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="72"/>
+      <c r="A682" s="63"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="72"/>
+      <c r="A684" s="63"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="72"/>
+      <c r="A686" s="63"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="72"/>
+      <c r="A688" s="63"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="72"/>
+      <c r="A690" s="63"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="72"/>
+      <c r="A692" s="63"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="72"/>
+      <c r="A694" s="63"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="72"/>
+      <c r="A696" s="63"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="72"/>
+      <c r="A698" s="63"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="72"/>
+      <c r="A700" s="63"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="72"/>
+      <c r="A702" s="63"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="72"/>
+      <c r="A704" s="63"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="72"/>
+      <c r="A706" s="63"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="72"/>
+      <c r="A708" s="63"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="72"/>
+      <c r="A710" s="63"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="72"/>
+      <c r="A712" s="63"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="72"/>
+      <c r="A714" s="63"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="72"/>
+      <c r="A716" s="63"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="72"/>
+      <c r="A718" s="63"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="72"/>
+      <c r="A720" s="63"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="72"/>
+      <c r="A722" s="63"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="72"/>
+      <c r="A724" s="63"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="72"/>
+      <c r="A726" s="63"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="72"/>
+      <c r="A728" s="63"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="72"/>
+      <c r="A730" s="63"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="72"/>
+      <c r="A732" s="63"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="72"/>
+      <c r="A734" s="63"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="72"/>
+      <c r="A736" s="63"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="72"/>
+      <c r="A738" s="63"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="72"/>
+      <c r="A740" s="63"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="72"/>
+      <c r="A742" s="63"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="72"/>
+      <c r="A744" s="63"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="72"/>
+      <c r="A746" s="63"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="72"/>
+      <c r="A748" s="63"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="72"/>
+      <c r="A750" s="63"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="72"/>
+      <c r="A752" s="63"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="72"/>
+      <c r="A754" s="63"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="72"/>
+      <c r="A756" s="63"/>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="12"/>
@@ -20182,13 +20256,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -20199,7 +20273,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -20210,7 +20284,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -20221,7 +20295,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -20237,7 +20311,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -20248,7 +20322,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -20264,7 +20338,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -20275,7 +20349,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -20286,7 +20360,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -20297,7 +20371,7 @@
         <v>43099</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -20308,7 +20382,7 @@
         <v>43100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:3">

--- a/实施周数据-李登林组/1月/2周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/1月/2周/实施周数据-李登林组-别伟超.xlsx
@@ -2317,6 +2317,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2326,7 +2341,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2337,6 +2365,33 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2365,21 +2420,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2392,15 +2433,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2431,51 +2473,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2536,13 +2536,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2555,120 +2579,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2698,7 +2608,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3069,6 +3069,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3093,15 +3108,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3113,30 +3119,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3158,11 +3140,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3172,10 +3172,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3184,37 +3184,34 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3223,105 +3220,108 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -20244,7 +20244,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -20391,9 +20391,15 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43107</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2"/>

--- a/实施周数据-李登林组/1月/2周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/1月/2周/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1412,9 +1412,6 @@
     <t>高媛媛</t>
   </si>
   <si>
-    <t>46周</t>
-  </si>
-  <si>
     <t>悸动(南京浦口信息工程大学店)</t>
   </si>
   <si>
@@ -1541,9 +1538,6 @@
     <t>0512-69881998</t>
   </si>
   <si>
-    <t>47周</t>
-  </si>
-  <si>
     <t>悸动(长宁天山西路店)</t>
   </si>
   <si>
@@ -1640,9 +1634,6 @@
     <t>魏贤萍</t>
   </si>
   <si>
-    <t>48周</t>
-  </si>
-  <si>
     <t>大连</t>
   </si>
   <si>
@@ -1715,9 +1706,6 @@
     <t>苏海燕</t>
   </si>
   <si>
-    <t>50周</t>
-  </si>
-  <si>
     <t>遇见王者(松江荣乐店)</t>
   </si>
   <si>
@@ -1880,9 +1868,6 @@
     <t>查厘士(徐汇日月光店11)</t>
   </si>
   <si>
-    <t>51周</t>
-  </si>
-  <si>
     <t>易涞司（上海）食品有限公司</t>
   </si>
   <si>
@@ -1916,9 +1901,6 @@
     <t>陈华</t>
   </si>
   <si>
-    <t>52周</t>
-  </si>
-  <si>
     <t>捞王锅物料理(金桥国际店)</t>
   </si>
   <si>
@@ -1962,9 +1944,6 @@
   </si>
   <si>
     <t>蔡芳</t>
-  </si>
-  <si>
-    <t>2周</t>
   </si>
   <si>
     <t>供应链</t>
@@ -2228,9 +2207,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
@@ -2318,6 +2297,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2333,34 +2373,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2368,38 +2380,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2420,45 +2405,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2471,11 +2432,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2536,54 +2515,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2608,6 +2539,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2626,49 +2641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2699,6 +2672,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3069,6 +3048,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3080,15 +3083,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3108,32 +3102,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3147,13 +3122,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3172,10 +3151,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3184,16 +3163,16 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3202,126 +3181,126 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4466,9 +4445,9 @@
   <dimension ref="A1:P757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C300" sqref="C300"/>
+      <selection pane="bottomLeft" activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12632,8 +12611,8 @@
       <c r="A180" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B180" s="43" t="s">
-        <v>449</v>
+      <c r="B180" s="43">
+        <v>46</v>
       </c>
       <c r="C180" s="44">
         <v>43053</v>
@@ -12654,19 +12633,19 @@
         <v>76106276</v>
       </c>
       <c r="I180" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="J180" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K180" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L180" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M180" s="42" t="s">
         <v>450</v>
-      </c>
-      <c r="J180" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K180" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L180" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M180" s="42" t="s">
-        <v>451</v>
       </c>
       <c r="N180" s="45" t="s">
         <v>46</v>
@@ -12682,8 +12661,8 @@
       <c r="A181" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B181" s="43" t="s">
-        <v>449</v>
+      <c r="B181" s="43">
+        <v>46</v>
       </c>
       <c r="C181" s="44">
         <v>43053</v>
@@ -12704,19 +12683,19 @@
         <v>76103683</v>
       </c>
       <c r="I181" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="J181" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K181" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L181" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M181" s="50" t="s">
         <v>452</v>
-      </c>
-      <c r="J181" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K181" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L181" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M181" s="50" t="s">
-        <v>453</v>
       </c>
       <c r="N181" s="45" t="s">
         <v>46</v>
@@ -12732,8 +12711,8 @@
       <c r="A182" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B182" s="43" t="s">
-        <v>449</v>
+      <c r="B182" s="43">
+        <v>46</v>
       </c>
       <c r="C182" s="44">
         <v>43053</v>
@@ -12754,19 +12733,19 @@
         <v>76106268</v>
       </c>
       <c r="I182" s="42" t="s">
+        <v>453</v>
+      </c>
+      <c r="J182" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K182" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L182" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M182" s="46" t="s">
         <v>454</v>
-      </c>
-      <c r="J182" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K182" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L182" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M182" s="46" t="s">
-        <v>455</v>
       </c>
       <c r="N182" s="45" t="s">
         <v>46</v>
@@ -12782,8 +12761,8 @@
       <c r="A183" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B183" s="43" t="s">
-        <v>449</v>
+      <c r="B183" s="43">
+        <v>46</v>
       </c>
       <c r="C183" s="44">
         <v>43053</v>
@@ -12804,19 +12783,19 @@
         <v>76106175</v>
       </c>
       <c r="I183" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="J183" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K183" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L183" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M183" s="42" t="s">
         <v>456</v>
-      </c>
-      <c r="J183" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K183" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L183" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M183" s="42" t="s">
-        <v>457</v>
       </c>
       <c r="N183" s="45" t="s">
         <v>46</v>
@@ -12832,8 +12811,8 @@
       <c r="A184" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B184" s="43" t="s">
-        <v>449</v>
+      <c r="B184" s="43">
+        <v>46</v>
       </c>
       <c r="C184" s="44">
         <v>43053</v>
@@ -12854,19 +12833,19 @@
         <v>76078788</v>
       </c>
       <c r="I184" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="J184" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K184" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L184" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M184" s="46" t="s">
         <v>458</v>
-      </c>
-      <c r="J184" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K184" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L184" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M184" s="46" t="s">
-        <v>459</v>
       </c>
       <c r="N184" s="45" t="s">
         <v>46</v>
@@ -12882,8 +12861,8 @@
       <c r="A185" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B185" s="43" t="s">
-        <v>449</v>
+      <c r="B185" s="43">
+        <v>46</v>
       </c>
       <c r="C185" s="44">
         <v>43053</v>
@@ -12904,19 +12883,19 @@
         <v>76105953</v>
       </c>
       <c r="I185" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="J185" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K185" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L185" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M185" s="41" t="s">
         <v>460</v>
-      </c>
-      <c r="J185" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K185" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L185" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M185" s="41" t="s">
-        <v>461</v>
       </c>
       <c r="N185" s="45" t="s">
         <v>46</v>
@@ -12932,8 +12911,8 @@
       <c r="A186" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B186" s="43" t="s">
-        <v>449</v>
+      <c r="B186" s="43">
+        <v>46</v>
       </c>
       <c r="C186" s="44">
         <v>43053</v>
@@ -12954,19 +12933,19 @@
         <v>76087615</v>
       </c>
       <c r="I186" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="J186" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K186" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L186" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M186" s="46" t="s">
         <v>462</v>
-      </c>
-      <c r="J186" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K186" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L186" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M186" s="46" t="s">
-        <v>463</v>
       </c>
       <c r="N186" s="45" t="s">
         <v>46</v>
@@ -12982,8 +12961,8 @@
       <c r="A187" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B187" s="43" t="s">
-        <v>449</v>
+      <c r="B187" s="43">
+        <v>46</v>
       </c>
       <c r="C187" s="44">
         <v>43053</v>
@@ -12998,25 +12977,25 @@
         <v>53</v>
       </c>
       <c r="G187" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H187" s="42">
         <v>76105508</v>
       </c>
       <c r="I187" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="J187" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K187" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L187" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M187" s="50" t="s">
         <v>465</v>
-      </c>
-      <c r="J187" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K187" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L187" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M187" s="50" t="s">
-        <v>466</v>
       </c>
       <c r="N187" s="45" t="s">
         <v>46</v>
@@ -13032,8 +13011,8 @@
       <c r="A188" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B188" s="43" t="s">
-        <v>449</v>
+      <c r="B188" s="43">
+        <v>46</v>
       </c>
       <c r="C188" s="44">
         <v>43053</v>
@@ -13054,19 +13033,19 @@
         <v>76105323</v>
       </c>
       <c r="I188" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="J188" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K188" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L188" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M188" s="42" t="s">
         <v>467</v>
-      </c>
-      <c r="J188" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K188" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L188" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M188" s="42" t="s">
-        <v>468</v>
       </c>
       <c r="N188" s="45" t="s">
         <v>46</v>
@@ -13082,8 +13061,8 @@
       <c r="A189" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B189" s="43" t="s">
-        <v>449</v>
+      <c r="B189" s="43">
+        <v>46</v>
       </c>
       <c r="C189" s="44">
         <v>43053</v>
@@ -13104,19 +13083,19 @@
         <v>76105578</v>
       </c>
       <c r="I189" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="J189" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K189" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L189" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M189" s="41" t="s">
         <v>469</v>
-      </c>
-      <c r="J189" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K189" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L189" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M189" s="41" t="s">
-        <v>470</v>
       </c>
       <c r="N189" s="45" t="s">
         <v>46</v>
@@ -13132,8 +13111,8 @@
       <c r="A190" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B190" s="43" t="s">
-        <v>449</v>
+      <c r="B190" s="43">
+        <v>46</v>
       </c>
       <c r="C190" s="44">
         <v>43053</v>
@@ -13154,19 +13133,19 @@
         <v>76106131</v>
       </c>
       <c r="I190" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="J190" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K190" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L190" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M190" s="42" t="s">
         <v>471</v>
-      </c>
-      <c r="J190" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K190" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L190" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M190" s="42" t="s">
-        <v>472</v>
       </c>
       <c r="N190" s="45" t="s">
         <v>46</v>
@@ -13182,8 +13161,8 @@
       <c r="A191" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B191" s="43" t="s">
-        <v>449</v>
+      <c r="B191" s="43">
+        <v>46</v>
       </c>
       <c r="C191" s="44">
         <v>43053</v>
@@ -13204,19 +13183,19 @@
         <v>76099661</v>
       </c>
       <c r="I191" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="J191" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K191" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L191" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M191" s="42" t="s">
         <v>473</v>
-      </c>
-      <c r="J191" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K191" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L191" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M191" s="42" t="s">
-        <v>474</v>
       </c>
       <c r="N191" s="45" t="s">
         <v>46</v>
@@ -13232,8 +13211,8 @@
       <c r="A192" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B192" s="43" t="s">
-        <v>449</v>
+      <c r="B192" s="43">
+        <v>46</v>
       </c>
       <c r="C192" s="44">
         <v>43053</v>
@@ -13254,19 +13233,19 @@
         <v>76101937</v>
       </c>
       <c r="I192" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="J192" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K192" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L192" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M192" s="46" t="s">
         <v>475</v>
-      </c>
-      <c r="J192" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K192" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L192" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M192" s="46" t="s">
-        <v>476</v>
       </c>
       <c r="N192" s="45" t="s">
         <v>46</v>
@@ -13282,8 +13261,8 @@
       <c r="A193" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B193" s="43" t="s">
-        <v>449</v>
+      <c r="B193" s="43">
+        <v>46</v>
       </c>
       <c r="C193" s="44">
         <v>43053</v>
@@ -13304,19 +13283,19 @@
         <v>76108189</v>
       </c>
       <c r="I193" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="J193" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K193" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L193" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M193" s="42" t="s">
         <v>477</v>
-      </c>
-      <c r="J193" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K193" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L193" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M193" s="42" t="s">
-        <v>478</v>
       </c>
       <c r="N193" s="45" t="s">
         <v>46</v>
@@ -13332,8 +13311,8 @@
       <c r="A194" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B194" s="43" t="s">
-        <v>449</v>
+      <c r="B194" s="43">
+        <v>46</v>
       </c>
       <c r="C194" s="44">
         <v>43053</v>
@@ -13354,19 +13333,19 @@
         <v>76108187</v>
       </c>
       <c r="I194" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="J194" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K194" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L194" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M194" s="42" t="s">
         <v>479</v>
-      </c>
-      <c r="J194" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K194" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L194" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M194" s="42" t="s">
-        <v>480</v>
       </c>
       <c r="N194" s="45" t="s">
         <v>46</v>
@@ -13382,8 +13361,8 @@
       <c r="A195" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B195" s="43" t="s">
-        <v>449</v>
+      <c r="B195" s="43">
+        <v>46</v>
       </c>
       <c r="C195" s="44">
         <v>43053</v>
@@ -13404,19 +13383,19 @@
         <v>76108196</v>
       </c>
       <c r="I195" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="J195" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K195" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L195" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M195" s="42" t="s">
         <v>481</v>
-      </c>
-      <c r="J195" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K195" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L195" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M195" s="42" t="s">
-        <v>482</v>
       </c>
       <c r="N195" s="45" t="s">
         <v>46</v>
@@ -13432,8 +13411,8 @@
       <c r="A196" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B196" s="43" t="s">
-        <v>449</v>
+      <c r="B196" s="43">
+        <v>46</v>
       </c>
       <c r="C196" s="44">
         <v>43053</v>
@@ -13454,19 +13433,19 @@
         <v>76108636</v>
       </c>
       <c r="I196" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="J196" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K196" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L196" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M196" s="42" t="s">
         <v>483</v>
-      </c>
-      <c r="J196" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K196" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L196" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M196" s="42" t="s">
-        <v>484</v>
       </c>
       <c r="N196" s="45" t="s">
         <v>46</v>
@@ -13482,8 +13461,8 @@
       <c r="A197" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B197" s="43" t="s">
-        <v>449</v>
+      <c r="B197" s="43">
+        <v>46</v>
       </c>
       <c r="C197" s="44">
         <v>43053</v>
@@ -13498,7 +13477,7 @@
         <v>53</v>
       </c>
       <c r="G197" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H197" s="42">
         <v>76093718</v>
@@ -13516,7 +13495,7 @@
         <v>17721436606</v>
       </c>
       <c r="M197" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N197" s="45" t="s">
         <v>46</v>
@@ -13532,8 +13511,8 @@
       <c r="A198" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B198" s="43" t="s">
-        <v>449</v>
+      <c r="B198" s="43">
+        <v>46</v>
       </c>
       <c r="C198" s="44">
         <v>43053</v>
@@ -13545,7 +13524,7 @@
         <v>136</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G198" s="8" t="s">
         <v>41</v>
@@ -13554,19 +13533,19 @@
         <v>76108207</v>
       </c>
       <c r="I198" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="J198" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K198" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L198" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M198" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="J198" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K198" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L198" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M198" s="8" t="s">
-        <v>489</v>
       </c>
       <c r="N198" s="8" t="s">
         <v>372</v>
@@ -13582,8 +13561,8 @@
       <c r="A199" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B199" s="43" t="s">
-        <v>449</v>
+      <c r="B199" s="43">
+        <v>46</v>
       </c>
       <c r="C199" s="34">
         <v>43054</v>
@@ -13604,7 +13583,7 @@
         <v>76102029</v>
       </c>
       <c r="I199" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J199" s="15" t="s">
         <v>41</v>
@@ -13622,7 +13601,7 @@
         <v>52</v>
       </c>
       <c r="O199" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P199" s="15" t="s">
         <v>174</v>
@@ -13650,8 +13629,8 @@
       <c r="A201" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B201" s="43" t="s">
-        <v>492</v>
+      <c r="B201" s="43">
+        <v>47</v>
       </c>
       <c r="C201" s="34">
         <v>43059</v>
@@ -13672,7 +13651,7 @@
         <v>76109355</v>
       </c>
       <c r="I201" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J201" s="45" t="s">
         <v>41</v>
@@ -13684,7 +13663,7 @@
         <v>17721436606</v>
       </c>
       <c r="M201" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N201" s="45" t="s">
         <v>46</v>
@@ -13700,8 +13679,8 @@
       <c r="A202" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B202" s="43" t="s">
-        <v>492</v>
+      <c r="B202" s="43">
+        <v>47</v>
       </c>
       <c r="C202" s="34">
         <v>43059</v>
@@ -13716,13 +13695,13 @@
         <v>53</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H202" s="16">
         <v>76109282</v>
       </c>
       <c r="I202" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J202" s="45" t="s">
         <v>41</v>
@@ -13734,7 +13713,7 @@
         <v>17721436606</v>
       </c>
       <c r="M202" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N202" s="45" t="s">
         <v>46</v>
@@ -13750,8 +13729,8 @@
       <c r="A203" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B203" s="43" t="s">
-        <v>492</v>
+      <c r="B203" s="43">
+        <v>47</v>
       </c>
       <c r="C203" s="34">
         <v>43059</v>
@@ -13772,7 +13751,7 @@
         <v>76109125</v>
       </c>
       <c r="I203" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J203" s="45" t="s">
         <v>41</v>
@@ -13784,7 +13763,7 @@
         <v>17721436606</v>
       </c>
       <c r="M203" s="16" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N203" s="45" t="s">
         <v>46</v>
@@ -13800,8 +13779,8 @@
       <c r="A204" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B204" s="43" t="s">
-        <v>492</v>
+      <c r="B204" s="43">
+        <v>47</v>
       </c>
       <c r="C204" s="34">
         <v>43059</v>
@@ -13822,7 +13801,7 @@
         <v>76108852</v>
       </c>
       <c r="I204" s="16" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J204" s="45" t="s">
         <v>41</v>
@@ -13834,7 +13813,7 @@
         <v>17721436606</v>
       </c>
       <c r="M204" s="16" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N204" s="45" t="s">
         <v>46</v>
@@ -13850,8 +13829,8 @@
       <c r="A205" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B205" s="43" t="s">
-        <v>492</v>
+      <c r="B205" s="43">
+        <v>47</v>
       </c>
       <c r="C205" s="34">
         <v>43059</v>
@@ -13872,7 +13851,7 @@
         <v>76108722</v>
       </c>
       <c r="I205" s="16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J205" s="45" t="s">
         <v>41</v>
@@ -13884,7 +13863,7 @@
         <v>17721436606</v>
       </c>
       <c r="M205" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="N205" s="45" t="s">
         <v>46</v>
@@ -13900,8 +13879,8 @@
       <c r="A206" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B206" s="43" t="s">
-        <v>492</v>
+      <c r="B206" s="43">
+        <v>47</v>
       </c>
       <c r="C206" s="34">
         <v>43059</v>
@@ -13922,7 +13901,7 @@
         <v>76108830</v>
       </c>
       <c r="I206" s="16" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J206" s="45" t="s">
         <v>41</v>
@@ -13934,7 +13913,7 @@
         <v>17721436606</v>
       </c>
       <c r="M206" s="16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="N206" s="45" t="s">
         <v>46</v>
@@ -13950,8 +13929,8 @@
       <c r="A207" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B207" s="43" t="s">
-        <v>492</v>
+      <c r="B207" s="43">
+        <v>47</v>
       </c>
       <c r="C207" s="34">
         <v>43059</v>
@@ -13972,7 +13951,7 @@
         <v>76078016</v>
       </c>
       <c r="I207" s="16" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J207" s="45" t="s">
         <v>41</v>
@@ -13984,7 +13963,7 @@
         <v>17721436606</v>
       </c>
       <c r="M207" s="16" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N207" s="45" t="s">
         <v>46</v>
@@ -14000,8 +13979,8 @@
       <c r="A208" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B208" s="43" t="s">
-        <v>492</v>
+      <c r="B208" s="43">
+        <v>47</v>
       </c>
       <c r="C208" s="34">
         <v>43059</v>
@@ -14022,7 +14001,7 @@
         <v>76107261</v>
       </c>
       <c r="I208" s="16" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J208" s="45" t="s">
         <v>41</v>
@@ -14034,7 +14013,7 @@
         <v>17721436606</v>
       </c>
       <c r="M208" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N208" s="45" t="s">
         <v>46</v>
@@ -14050,8 +14029,8 @@
       <c r="A209" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B209" s="43" t="s">
-        <v>492</v>
+      <c r="B209" s="43">
+        <v>47</v>
       </c>
       <c r="C209" s="34">
         <v>43059</v>
@@ -14072,7 +14051,7 @@
         <v>76106757</v>
       </c>
       <c r="I209" s="16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J209" s="45" t="s">
         <v>41</v>
@@ -14084,7 +14063,7 @@
         <v>17721436606</v>
       </c>
       <c r="M209" s="16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N209" s="45" t="s">
         <v>46</v>
@@ -14100,8 +14079,8 @@
       <c r="A210" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B210" s="43" t="s">
-        <v>492</v>
+      <c r="B210" s="43">
+        <v>47</v>
       </c>
       <c r="C210" s="34">
         <v>43059</v>
@@ -14122,7 +14101,7 @@
         <v>76109690</v>
       </c>
       <c r="I210" s="16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J210" s="45" t="s">
         <v>41</v>
@@ -14134,7 +14113,7 @@
         <v>17721436606</v>
       </c>
       <c r="M210" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N210" s="45" t="s">
         <v>46</v>
@@ -14150,8 +14129,8 @@
       <c r="A211" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B211" s="43" t="s">
-        <v>492</v>
+      <c r="B211" s="43">
+        <v>47</v>
       </c>
       <c r="C211" s="34">
         <v>43059</v>
@@ -14166,13 +14145,13 @@
         <v>53</v>
       </c>
       <c r="G211" s="16" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H211" s="16">
         <v>76103156</v>
       </c>
       <c r="I211" s="16" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J211" s="45" t="s">
         <v>41</v>
@@ -14184,7 +14163,7 @@
         <v>17721436606</v>
       </c>
       <c r="M211" s="16" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N211" s="45" t="s">
         <v>46</v>
@@ -14200,8 +14179,8 @@
       <c r="A212" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B212" s="43" t="s">
-        <v>492</v>
+      <c r="B212" s="43">
+        <v>47</v>
       </c>
       <c r="C212" s="34">
         <v>43059</v>
@@ -14222,7 +14201,7 @@
         <v>76091385</v>
       </c>
       <c r="I212" s="16" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J212" s="45" t="s">
         <v>41</v>
@@ -14234,7 +14213,7 @@
         <v>17721436606</v>
       </c>
       <c r="M212" s="16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N212" s="45" t="s">
         <v>46</v>
@@ -14250,8 +14229,8 @@
       <c r="A213" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B213" s="43" t="s">
-        <v>492</v>
+      <c r="B213" s="43">
+        <v>47</v>
       </c>
       <c r="C213" s="34">
         <v>43059</v>
@@ -14272,7 +14251,7 @@
         <v>76108185</v>
       </c>
       <c r="I213" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J213" s="45" t="s">
         <v>41</v>
@@ -14284,7 +14263,7 @@
         <v>17721436606</v>
       </c>
       <c r="M213" s="16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N213" s="45" t="s">
         <v>46</v>
@@ -14300,8 +14279,8 @@
       <c r="A214" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B214" s="43" t="s">
-        <v>492</v>
+      <c r="B214" s="43">
+        <v>47</v>
       </c>
       <c r="C214" s="34">
         <v>43059</v>
@@ -14322,7 +14301,7 @@
         <v>76109725</v>
       </c>
       <c r="I214" s="16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J214" s="45" t="s">
         <v>41</v>
@@ -14334,7 +14313,7 @@
         <v>17721436606</v>
       </c>
       <c r="M214" s="16" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N214" s="45" t="s">
         <v>46</v>
@@ -14350,8 +14329,8 @@
       <c r="A215" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B215" s="43" t="s">
-        <v>492</v>
+      <c r="B215" s="43">
+        <v>47</v>
       </c>
       <c r="C215" s="34">
         <v>43059</v>
@@ -14372,7 +14351,7 @@
         <v>76109788</v>
       </c>
       <c r="I215" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J215" s="45" t="s">
         <v>41</v>
@@ -14384,7 +14363,7 @@
         <v>17721436606</v>
       </c>
       <c r="M215" s="16" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N215" s="45" t="s">
         <v>46</v>
@@ -14418,8 +14397,8 @@
       <c r="A217" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B217" s="43" t="s">
-        <v>525</v>
+      <c r="B217" s="43">
+        <v>48</v>
       </c>
       <c r="C217" s="34">
         <v>43069</v>
@@ -14434,13 +14413,13 @@
         <v>413</v>
       </c>
       <c r="G217" s="42" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H217" s="42">
         <v>76105618</v>
       </c>
       <c r="I217" s="42" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J217" s="15" t="s">
         <v>41</v>
@@ -14452,7 +14431,7 @@
         <v>17721436606</v>
       </c>
       <c r="M217" s="42" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="N217" s="45" t="s">
         <v>46</v>
@@ -14468,8 +14447,8 @@
       <c r="A218" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B218" s="43" t="s">
-        <v>525</v>
+      <c r="B218" s="43">
+        <v>48</v>
       </c>
       <c r="C218" s="34">
         <v>43069</v>
@@ -14490,7 +14469,7 @@
         <v>76111099</v>
       </c>
       <c r="I218" s="42" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J218" s="15" t="s">
         <v>41</v>
@@ -14502,7 +14481,7 @@
         <v>17721436606</v>
       </c>
       <c r="M218" s="42" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="N218" s="45" t="s">
         <v>46</v>
@@ -14518,8 +14497,8 @@
       <c r="A219" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B219" s="43" t="s">
-        <v>525</v>
+      <c r="B219" s="43">
+        <v>48</v>
       </c>
       <c r="C219" s="34">
         <v>43069</v>
@@ -14540,7 +14519,7 @@
         <v>76111102</v>
       </c>
       <c r="I219" s="42" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J219" s="15" t="s">
         <v>41</v>
@@ -14552,7 +14531,7 @@
         <v>17721436606</v>
       </c>
       <c r="M219" s="42" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="N219" s="45" t="s">
         <v>46</v>
@@ -14568,8 +14547,8 @@
       <c r="A220" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B220" s="43" t="s">
-        <v>525</v>
+      <c r="B220" s="43">
+        <v>48</v>
       </c>
       <c r="C220" s="34">
         <v>43069</v>
@@ -14590,7 +14569,7 @@
         <v>76111103</v>
       </c>
       <c r="I220" s="42" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J220" s="15" t="s">
         <v>41</v>
@@ -14602,13 +14581,13 @@
         <v>17721436606</v>
       </c>
       <c r="M220" s="54" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="N220" s="45" t="s">
         <v>46</v>
       </c>
       <c r="O220" s="55" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="P220" s="8" t="s">
         <v>171</v>
@@ -14618,8 +14597,8 @@
       <c r="A221" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B221" s="43" t="s">
-        <v>525</v>
+      <c r="B221" s="43">
+        <v>48</v>
       </c>
       <c r="C221" s="34">
         <v>43069</v>
@@ -14640,7 +14619,7 @@
         <v>76111881</v>
       </c>
       <c r="I221" s="49" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J221" s="15" t="s">
         <v>41</v>
@@ -14652,7 +14631,7 @@
         <v>17721436606</v>
       </c>
       <c r="M221" s="42" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="N221" s="45" t="s">
         <v>46</v>
@@ -14668,8 +14647,8 @@
       <c r="A222" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B222" s="43" t="s">
-        <v>525</v>
+      <c r="B222" s="43">
+        <v>48</v>
       </c>
       <c r="C222" s="34">
         <v>43069</v>
@@ -14684,13 +14663,13 @@
         <v>413</v>
       </c>
       <c r="G222" s="42" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H222" s="49">
         <v>76111880</v>
       </c>
       <c r="I222" s="49" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J222" s="15" t="s">
         <v>41</v>
@@ -14702,7 +14681,7 @@
         <v>17721436606</v>
       </c>
       <c r="M222" s="42" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N222" s="45" t="s">
         <v>46</v>
@@ -14718,8 +14697,8 @@
       <c r="A223" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B223" s="43" t="s">
-        <v>525</v>
+      <c r="B223" s="43">
+        <v>48</v>
       </c>
       <c r="C223" s="34">
         <v>43069</v>
@@ -14740,7 +14719,7 @@
         <v>76107522</v>
       </c>
       <c r="I223" s="49" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J223" s="15" t="s">
         <v>41</v>
@@ -14752,7 +14731,7 @@
         <v>17721436606</v>
       </c>
       <c r="M223" s="42" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="N223" s="45" t="s">
         <v>46</v>
@@ -14768,8 +14747,8 @@
       <c r="A224" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B224" s="43" t="s">
-        <v>525</v>
+      <c r="B224" s="43">
+        <v>48</v>
       </c>
       <c r="C224" s="34">
         <v>43069</v>
@@ -14784,13 +14763,13 @@
         <v>413</v>
       </c>
       <c r="G224" s="42" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H224" s="49">
         <v>76106008</v>
       </c>
       <c r="I224" s="49" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J224" s="15" t="s">
         <v>41</v>
@@ -14802,7 +14781,7 @@
         <v>17721436606</v>
       </c>
       <c r="M224" s="42" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N224" s="45" t="s">
         <v>46</v>
@@ -14818,8 +14797,8 @@
       <c r="A225" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B225" s="43" t="s">
-        <v>525</v>
+      <c r="B225" s="43">
+        <v>48</v>
       </c>
       <c r="C225" s="34">
         <v>43069</v>
@@ -14840,7 +14819,7 @@
         <v>76105998</v>
       </c>
       <c r="I225" s="49" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J225" s="15" t="s">
         <v>41</v>
@@ -14852,7 +14831,7 @@
         <v>17721436606</v>
       </c>
       <c r="M225" s="42" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="N225" s="45" t="s">
         <v>46</v>
@@ -14868,8 +14847,8 @@
       <c r="A226" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B226" s="43" t="s">
-        <v>525</v>
+      <c r="B226" s="43">
+        <v>48</v>
       </c>
       <c r="C226" s="34">
         <v>43069</v>
@@ -14890,7 +14869,7 @@
         <v>76105997</v>
       </c>
       <c r="I226" s="49" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="J226" s="15" t="s">
         <v>41</v>
@@ -14902,7 +14881,7 @@
         <v>17721436606</v>
       </c>
       <c r="M226" s="42" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="N226" s="45" t="s">
         <v>46</v>
@@ -14936,8 +14915,8 @@
       <c r="A228" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B228" s="43" t="s">
-        <v>550</v>
+      <c r="B228" s="43">
+        <v>50</v>
       </c>
       <c r="C228" s="18">
         <v>43077</v>
@@ -14958,7 +14937,7 @@
         <v>76115060</v>
       </c>
       <c r="I228" s="15" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="J228" s="15" t="s">
         <v>41</v>
@@ -14970,7 +14949,7 @@
         <v>17721436606</v>
       </c>
       <c r="M228" s="15" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="N228" s="15" t="s">
         <v>46</v>
@@ -14986,8 +14965,8 @@
       <c r="A229" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B229" s="43" t="s">
-        <v>550</v>
+      <c r="B229" s="43">
+        <v>50</v>
       </c>
       <c r="C229" s="18">
         <v>43077</v>
@@ -14996,19 +14975,19 @@
         <v>42</v>
       </c>
       <c r="E229" s="15" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F229" s="15" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G229" s="15" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H229" s="15">
         <v>76112588</v>
       </c>
       <c r="I229" s="15" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J229" s="15" t="s">
         <v>41</v>
@@ -15020,7 +14999,7 @@
         <v>17721436606</v>
       </c>
       <c r="M229" s="15" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="N229" s="15" t="s">
         <v>46</v>
@@ -15036,8 +15015,8 @@
       <c r="A230" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B230" s="43" t="s">
-        <v>550</v>
+      <c r="B230" s="43">
+        <v>50</v>
       </c>
       <c r="C230" s="18">
         <v>43077</v>
@@ -15058,7 +15037,7 @@
         <v>76111093</v>
       </c>
       <c r="I230" s="42" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="J230" s="45" t="s">
         <v>41</v>
@@ -15070,7 +15049,7 @@
         <v>17721436606</v>
       </c>
       <c r="M230" s="42" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N230" s="15" t="s">
         <v>46</v>
@@ -15086,8 +15065,8 @@
       <c r="A231" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B231" s="43" t="s">
-        <v>550</v>
+      <c r="B231" s="43">
+        <v>50</v>
       </c>
       <c r="C231" s="18">
         <v>43077</v>
@@ -15102,13 +15081,13 @@
         <v>53</v>
       </c>
       <c r="G231" s="42" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H231" s="42">
         <v>76109756</v>
       </c>
       <c r="I231" s="49" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J231" s="45" t="s">
         <v>41</v>
@@ -15120,7 +15099,7 @@
         <v>17721436606</v>
       </c>
       <c r="M231" s="56" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="N231" s="15" t="s">
         <v>46</v>
@@ -15136,8 +15115,8 @@
       <c r="A232" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B232" s="43" t="s">
-        <v>550</v>
+      <c r="B232" s="43">
+        <v>50</v>
       </c>
       <c r="C232" s="18">
         <v>43077</v>
@@ -15158,7 +15137,7 @@
         <v>76110188</v>
       </c>
       <c r="I232" s="49" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J232" s="45" t="s">
         <v>41</v>
@@ -15170,7 +15149,7 @@
         <v>17721436606</v>
       </c>
       <c r="M232" s="42" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="N232" s="15" t="s">
         <v>46</v>
@@ -15186,8 +15165,8 @@
       <c r="A233" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B233" s="43" t="s">
-        <v>550</v>
+      <c r="B233" s="43">
+        <v>50</v>
       </c>
       <c r="C233" s="18">
         <v>43077</v>
@@ -15202,13 +15181,13 @@
         <v>53</v>
       </c>
       <c r="G233" s="42" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H233" s="42">
         <v>76110321</v>
       </c>
       <c r="I233" s="49" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J233" s="45" t="s">
         <v>41</v>
@@ -15220,7 +15199,7 @@
         <v>17721436606</v>
       </c>
       <c r="M233" s="42" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="N233" s="15" t="s">
         <v>46</v>
@@ -15236,8 +15215,8 @@
       <c r="A234" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B234" s="43" t="s">
-        <v>550</v>
+      <c r="B234" s="43">
+        <v>50</v>
       </c>
       <c r="C234" s="18">
         <v>43077</v>
@@ -15258,7 +15237,7 @@
         <v>76110778</v>
       </c>
       <c r="I234" s="49" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J234" s="45" t="s">
         <v>41</v>
@@ -15270,7 +15249,7 @@
         <v>17721436606</v>
       </c>
       <c r="M234" s="42" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N234" s="15" t="s">
         <v>46</v>
@@ -15286,8 +15265,8 @@
       <c r="A235" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B235" s="43" t="s">
-        <v>550</v>
+      <c r="B235" s="43">
+        <v>50</v>
       </c>
       <c r="C235" s="18">
         <v>43077</v>
@@ -15302,13 +15281,13 @@
         <v>53</v>
       </c>
       <c r="G235" s="42" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H235" s="42">
         <v>76111510</v>
       </c>
       <c r="I235" s="49" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="J235" s="45" t="s">
         <v>41</v>
@@ -15320,7 +15299,7 @@
         <v>17721436606</v>
       </c>
       <c r="M235" s="42" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="N235" s="15" t="s">
         <v>46</v>
@@ -15336,8 +15315,8 @@
       <c r="A236" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B236" s="43" t="s">
-        <v>550</v>
+      <c r="B236" s="43">
+        <v>50</v>
       </c>
       <c r="C236" s="18">
         <v>43077</v>
@@ -15358,7 +15337,7 @@
         <v>76111511</v>
       </c>
       <c r="I236" s="49" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J236" s="45" t="s">
         <v>41</v>
@@ -15370,7 +15349,7 @@
         <v>17721436606</v>
       </c>
       <c r="M236" s="42" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="N236" s="15" t="s">
         <v>46</v>
@@ -15386,8 +15365,8 @@
       <c r="A237" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B237" s="43" t="s">
-        <v>550</v>
+      <c r="B237" s="43">
+        <v>50</v>
       </c>
       <c r="C237" s="18">
         <v>43077</v>
@@ -15408,7 +15387,7 @@
         <v>76111516</v>
       </c>
       <c r="I237" s="49" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J237" s="45" t="s">
         <v>41</v>
@@ -15420,7 +15399,7 @@
         <v>17721436606</v>
       </c>
       <c r="M237" s="42" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="N237" s="15" t="s">
         <v>46</v>
@@ -15436,8 +15415,8 @@
       <c r="A238" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B238" s="43" t="s">
-        <v>550</v>
+      <c r="B238" s="43">
+        <v>50</v>
       </c>
       <c r="C238" s="18">
         <v>43077</v>
@@ -15458,7 +15437,7 @@
         <v>76111580</v>
       </c>
       <c r="I238" s="49" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J238" s="45" t="s">
         <v>41</v>
@@ -15470,7 +15449,7 @@
         <v>17721436606</v>
       </c>
       <c r="M238" s="57" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="N238" s="15" t="s">
         <v>46</v>
@@ -15486,8 +15465,8 @@
       <c r="A239" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B239" s="43" t="s">
-        <v>550</v>
+      <c r="B239" s="43">
+        <v>50</v>
       </c>
       <c r="C239" s="18">
         <v>43077</v>
@@ -15508,7 +15487,7 @@
         <v>76111933</v>
       </c>
       <c r="I239" s="49" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J239" s="45" t="s">
         <v>41</v>
@@ -15536,8 +15515,8 @@
       <c r="A240" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B240" s="43" t="s">
-        <v>550</v>
+      <c r="B240" s="43">
+        <v>50</v>
       </c>
       <c r="C240" s="18">
         <v>43077</v>
@@ -15558,7 +15537,7 @@
         <v>76112636</v>
       </c>
       <c r="I240" s="42" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="J240" s="45" t="s">
         <v>41</v>
@@ -15570,7 +15549,7 @@
         <v>17721436606</v>
       </c>
       <c r="M240" s="42" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="N240" s="15" t="s">
         <v>46</v>
@@ -15586,8 +15565,8 @@
       <c r="A241" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B241" s="43" t="s">
-        <v>550</v>
+      <c r="B241" s="43">
+        <v>50</v>
       </c>
       <c r="C241" s="18">
         <v>43077</v>
@@ -15602,13 +15581,13 @@
         <v>53</v>
       </c>
       <c r="G241" s="42" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H241" s="42">
         <v>76112678</v>
       </c>
       <c r="I241" s="42" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J241" s="45" t="s">
         <v>41</v>
@@ -15620,7 +15599,7 @@
         <v>17721436606</v>
       </c>
       <c r="M241" s="56" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N241" s="15" t="s">
         <v>46</v>
@@ -15636,8 +15615,8 @@
       <c r="A242" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B242" s="43" t="s">
-        <v>550</v>
+      <c r="B242" s="43">
+        <v>50</v>
       </c>
       <c r="C242" s="18">
         <v>43077</v>
@@ -15670,7 +15649,7 @@
         <v>17721436606</v>
       </c>
       <c r="M242" s="56" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N242" s="15" t="s">
         <v>46</v>
@@ -15686,8 +15665,8 @@
       <c r="A243" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B243" s="43" t="s">
-        <v>550</v>
+      <c r="B243" s="43">
+        <v>50</v>
       </c>
       <c r="C243" s="18">
         <v>43077</v>
@@ -15708,7 +15687,7 @@
         <v>76112769</v>
       </c>
       <c r="I243" s="42" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="J243" s="45" t="s">
         <v>41</v>
@@ -15720,7 +15699,7 @@
         <v>17721436606</v>
       </c>
       <c r="M243" s="42" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="N243" s="15" t="s">
         <v>46</v>
@@ -15736,8 +15715,8 @@
       <c r="A244" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B244" s="43" t="s">
-        <v>550</v>
+      <c r="B244" s="43">
+        <v>50</v>
       </c>
       <c r="C244" s="18">
         <v>43077</v>
@@ -15752,13 +15731,13 @@
         <v>53</v>
       </c>
       <c r="G244" s="42" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H244" s="42">
         <v>76113089</v>
       </c>
       <c r="I244" s="49" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J244" s="45" t="s">
         <v>41</v>
@@ -15770,7 +15749,7 @@
         <v>17721436606</v>
       </c>
       <c r="M244" s="42" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N244" s="15" t="s">
         <v>46</v>
@@ -15786,8 +15765,8 @@
       <c r="A245" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B245" s="43" t="s">
-        <v>550</v>
+      <c r="B245" s="43">
+        <v>50</v>
       </c>
       <c r="C245" s="18">
         <v>43077</v>
@@ -15808,7 +15787,7 @@
         <v>76113091</v>
       </c>
       <c r="I245" s="49" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J245" s="45" t="s">
         <v>41</v>
@@ -15820,7 +15799,7 @@
         <v>17721436606</v>
       </c>
       <c r="M245" s="42" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="N245" s="15" t="s">
         <v>46</v>
@@ -15836,8 +15815,8 @@
       <c r="A246" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B246" s="43" t="s">
-        <v>550</v>
+      <c r="B246" s="43">
+        <v>50</v>
       </c>
       <c r="C246" s="18">
         <v>43077</v>
@@ -15858,7 +15837,7 @@
         <v>76113280</v>
       </c>
       <c r="I246" s="49" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J246" s="45" t="s">
         <v>41</v>
@@ -15870,7 +15849,7 @@
         <v>17721436606</v>
       </c>
       <c r="M246" s="42" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N246" s="15" t="s">
         <v>46</v>
@@ -15886,8 +15865,8 @@
       <c r="A247" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B247" s="43" t="s">
-        <v>550</v>
+      <c r="B247" s="43">
+        <v>50</v>
       </c>
       <c r="C247" s="18">
         <v>43077</v>
@@ -15908,7 +15887,7 @@
         <v>76113305</v>
       </c>
       <c r="I247" s="49" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="J247" s="45" t="s">
         <v>41</v>
@@ -15920,7 +15899,7 @@
         <v>17721436606</v>
       </c>
       <c r="M247" s="56" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="N247" s="15" t="s">
         <v>46</v>
@@ -15936,8 +15915,8 @@
       <c r="A248" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B248" s="43" t="s">
-        <v>550</v>
+      <c r="B248" s="43">
+        <v>50</v>
       </c>
       <c r="C248" s="18">
         <v>43077</v>
@@ -15958,7 +15937,7 @@
         <v>76113311</v>
       </c>
       <c r="I248" s="49" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J248" s="45" t="s">
         <v>41</v>
@@ -15970,7 +15949,7 @@
         <v>17721436606</v>
       </c>
       <c r="M248" s="42" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="N248" s="15" t="s">
         <v>46</v>
@@ -15986,8 +15965,8 @@
       <c r="A249" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B249" s="43" t="s">
-        <v>550</v>
+      <c r="B249" s="43">
+        <v>50</v>
       </c>
       <c r="C249" s="18">
         <v>43077</v>
@@ -16008,7 +15987,7 @@
         <v>76113900</v>
       </c>
       <c r="I249" s="49" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="J249" s="45" t="s">
         <v>41</v>
@@ -16020,7 +15999,7 @@
         <v>17721436606</v>
       </c>
       <c r="M249" s="42" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N249" s="15" t="s">
         <v>46</v>
@@ -16036,8 +16015,8 @@
       <c r="A250" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B250" s="43" t="s">
-        <v>550</v>
+      <c r="B250" s="43">
+        <v>50</v>
       </c>
       <c r="C250" s="18">
         <v>43077</v>
@@ -16058,7 +16037,7 @@
         <v>76113977</v>
       </c>
       <c r="I250" s="49" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="J250" s="45" t="s">
         <v>41</v>
@@ -16070,7 +16049,7 @@
         <v>17721436606</v>
       </c>
       <c r="M250" s="42" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="N250" s="15" t="s">
         <v>46</v>
@@ -16086,8 +16065,8 @@
       <c r="A251" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B251" s="43" t="s">
-        <v>550</v>
+      <c r="B251" s="43">
+        <v>50</v>
       </c>
       <c r="C251" s="18">
         <v>43077</v>
@@ -16108,7 +16087,7 @@
         <v>76115020</v>
       </c>
       <c r="I251" s="49" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="J251" s="45" t="s">
         <v>41</v>
@@ -16120,7 +16099,7 @@
         <v>17721436606</v>
       </c>
       <c r="M251" s="42" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="N251" s="15" t="s">
         <v>46</v>
@@ -16136,8 +16115,8 @@
       <c r="A252" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B252" s="43" t="s">
-        <v>550</v>
+      <c r="B252" s="43">
+        <v>50</v>
       </c>
       <c r="C252" s="18">
         <v>43082</v>
@@ -16158,7 +16137,7 @@
         <v>76113852</v>
       </c>
       <c r="I252" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="J252" s="8" t="s">
         <v>41</v>
@@ -16204,8 +16183,8 @@
       <c r="A254" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B254" s="17" t="s">
-        <v>605</v>
+      <c r="B254" s="17">
+        <v>51</v>
       </c>
       <c r="C254" s="18">
         <v>43087</v>
@@ -16214,10 +16193,10 @@
         <v>42</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G254" s="8" t="s">
         <v>41</v>
@@ -16226,7 +16205,7 @@
         <v>76110599</v>
       </c>
       <c r="I254" s="8" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="J254" s="8" t="s">
         <v>41</v>
@@ -16238,7 +16217,7 @@
         <v>17721436606</v>
       </c>
       <c r="M254" s="8" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N254" s="8" t="s">
         <v>46</v>
@@ -16254,8 +16233,8 @@
       <c r="A255" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B255" s="17" t="s">
-        <v>605</v>
+      <c r="B255" s="17">
+        <v>51</v>
       </c>
       <c r="C255" s="18">
         <v>43087</v>
@@ -16276,7 +16255,7 @@
         <v>76116391</v>
       </c>
       <c r="I255" s="8" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="J255" s="8" t="s">
         <v>41</v>
@@ -16288,7 +16267,7 @@
         <v>17721436606</v>
       </c>
       <c r="M255" s="8" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="N255" s="8" t="s">
         <v>52</v>
@@ -16304,8 +16283,8 @@
       <c r="A256" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B256" s="17" t="s">
-        <v>605</v>
+      <c r="B256" s="17">
+        <v>51</v>
       </c>
       <c r="C256" s="18">
         <v>43088</v>
@@ -16314,10 +16293,10 @@
         <v>42</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G256" s="8" t="s">
         <v>41</v>
@@ -16326,7 +16305,7 @@
         <v>76117306</v>
       </c>
       <c r="I256" s="8" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J256" s="8" t="s">
         <v>41</v>
@@ -16338,7 +16317,7 @@
         <v>17721436606</v>
       </c>
       <c r="M256" s="8" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="N256" s="8" t="s">
         <v>46</v>
@@ -16354,8 +16333,8 @@
       <c r="A257" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B257" s="19" t="s">
-        <v>605</v>
+      <c r="B257" s="19">
+        <v>51</v>
       </c>
       <c r="C257" s="18">
         <v>43089</v>
@@ -16376,7 +16355,7 @@
         <v>76116396</v>
       </c>
       <c r="I257" s="8" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="J257" s="8" t="s">
         <v>41</v>
@@ -16388,7 +16367,7 @@
         <v>17721436606</v>
       </c>
       <c r="M257" s="8" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="N257" s="8" t="s">
         <v>52</v>
@@ -16422,8 +16401,8 @@
       <c r="A259" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B259" s="19" t="s">
-        <v>617</v>
+      <c r="B259" s="19">
+        <v>52</v>
       </c>
       <c r="C259" s="18">
         <v>43094</v>
@@ -16444,7 +16423,7 @@
         <v>76116392</v>
       </c>
       <c r="I259" s="8" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="J259" s="8" t="s">
         <v>41</v>
@@ -16456,7 +16435,7 @@
         <v>17721436606</v>
       </c>
       <c r="M259" s="8" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="N259" s="8" t="s">
         <v>52</v>
@@ -16472,8 +16451,8 @@
       <c r="A260" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B260" s="19" t="s">
-        <v>617</v>
+      <c r="B260" s="19">
+        <v>52</v>
       </c>
       <c r="C260" s="18">
         <v>43094</v>
@@ -16482,10 +16461,10 @@
         <v>42</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G260" s="8" t="s">
         <v>41</v>
@@ -16494,7 +16473,7 @@
         <v>76097788</v>
       </c>
       <c r="I260" s="8" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="J260" s="8" t="s">
         <v>41</v>
@@ -16506,7 +16485,7 @@
         <v>17721436606</v>
       </c>
       <c r="M260" s="8" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="N260" s="8" t="s">
         <v>52</v>
@@ -16522,8 +16501,8 @@
       <c r="A261" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B261" s="19" t="s">
-        <v>617</v>
+      <c r="B261" s="19">
+        <v>52</v>
       </c>
       <c r="C261" s="18">
         <v>43094</v>
@@ -16535,7 +16514,7 @@
         <v>53</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G261" s="8" t="s">
         <v>97</v>
@@ -16544,7 +16523,7 @@
         <v>76118798</v>
       </c>
       <c r="I261" s="8" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="J261" s="8" t="s">
         <v>41</v>
@@ -16572,8 +16551,8 @@
       <c r="A262" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B262" s="19" t="s">
-        <v>617</v>
+      <c r="B262" s="19">
+        <v>52</v>
       </c>
       <c r="C262" s="18">
         <v>43095</v>
@@ -16588,13 +16567,13 @@
         <v>413</v>
       </c>
       <c r="G262" s="42" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="H262" s="42">
         <v>76113672</v>
       </c>
       <c r="I262" s="42" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="J262" s="8" t="s">
         <v>41</v>
@@ -16606,7 +16585,7 @@
         <v>17721436606</v>
       </c>
       <c r="M262" s="42" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="N262" s="8" t="s">
         <v>52</v>
@@ -16622,8 +16601,8 @@
       <c r="A263" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B263" s="19" t="s">
-        <v>617</v>
+      <c r="B263" s="19">
+        <v>52</v>
       </c>
       <c r="C263" s="18">
         <v>43095</v>
@@ -16644,7 +16623,7 @@
         <v>76116101</v>
       </c>
       <c r="I263" s="49" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="J263" s="8" t="s">
         <v>41</v>
@@ -16656,7 +16635,7 @@
         <v>17721436606</v>
       </c>
       <c r="M263" s="42" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="N263" s="8" t="s">
         <v>52</v>
@@ -16672,8 +16651,8 @@
       <c r="A264" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B264" s="19" t="s">
-        <v>617</v>
+      <c r="B264" s="19">
+        <v>52</v>
       </c>
       <c r="C264" s="18">
         <v>43095</v>
@@ -16694,7 +16673,7 @@
         <v>76116102</v>
       </c>
       <c r="I264" s="49" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="J264" s="8" t="s">
         <v>41</v>
@@ -16706,7 +16685,7 @@
         <v>17721436606</v>
       </c>
       <c r="M264" s="42" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N264" s="8" t="s">
         <v>52</v>
@@ -16728,20 +16707,20 @@
       <c r="A266" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B266" s="19" t="s">
-        <v>633</v>
+      <c r="B266" s="19">
+        <v>2</v>
       </c>
       <c r="C266" s="18">
         <v>43105</v>
       </c>
       <c r="D266" s="45" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F266" s="8" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G266" s="8" t="s">
         <v>292</v>
@@ -16750,7 +16729,7 @@
         <v>76057106</v>
       </c>
       <c r="I266" s="8" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="J266" s="8" t="s">
         <v>41</v>
@@ -16762,10 +16741,10 @@
         <v>17721436606</v>
       </c>
       <c r="M266" s="8" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="N266" s="8" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="O266" s="12">
         <v>15900941705</v>
@@ -16778,20 +16757,20 @@
       <c r="A267" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B267" s="19" t="s">
-        <v>633</v>
+      <c r="B267" s="19">
+        <v>2</v>
       </c>
       <c r="C267" s="18">
         <v>43105</v>
       </c>
       <c r="D267" s="45" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F267" s="8" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="G267" s="8" t="s">
         <v>41</v>
@@ -16800,7 +16779,7 @@
         <v>76092869</v>
       </c>
       <c r="I267" s="8" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="J267" s="8" t="s">
         <v>41</v>
@@ -16812,10 +16791,10 @@
         <v>17721436606</v>
       </c>
       <c r="M267" s="8" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="N267" s="8" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="O267" s="12">
         <v>15900941705</v>
@@ -16828,8 +16807,8 @@
       <c r="A268" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B268" s="19" t="s">
-        <v>633</v>
+      <c r="B268" s="19">
+        <v>2</v>
       </c>
       <c r="C268" s="18">
         <v>43105</v>
@@ -16838,10 +16817,10 @@
         <v>42</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="G268" s="8" t="s">
         <v>292</v>
@@ -16850,7 +16829,7 @@
         <v>76119812</v>
       </c>
       <c r="I268" s="8" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="J268" s="8" t="s">
         <v>41</v>
@@ -16862,10 +16841,10 @@
         <v>17721436606</v>
       </c>
       <c r="M268" s="8" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="N268" s="8" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="O268" s="12"/>
       <c r="P268" s="8" t="s">
@@ -16876,8 +16855,8 @@
       <c r="A269" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B269" s="19" t="s">
-        <v>633</v>
+      <c r="B269" s="19">
+        <v>2</v>
       </c>
       <c r="C269" s="18">
         <v>43105</v>
@@ -16898,7 +16877,7 @@
         <v>76115725</v>
       </c>
       <c r="I269" s="42" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="J269" s="15" t="s">
         <v>41</v>
@@ -16910,7 +16889,7 @@
         <v>17721436606</v>
       </c>
       <c r="M269" s="42" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="N269" s="15" t="s">
         <v>52</v>
@@ -16926,8 +16905,8 @@
       <c r="A270" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B270" s="19" t="s">
-        <v>633</v>
+      <c r="B270" s="19">
+        <v>2</v>
       </c>
       <c r="C270" s="18">
         <v>43105</v>
@@ -16948,7 +16927,7 @@
         <v>76115906</v>
       </c>
       <c r="I270" s="42" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J270" s="15" t="s">
         <v>41</v>
@@ -16960,7 +16939,7 @@
         <v>17721436606</v>
       </c>
       <c r="M270" s="42" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="N270" s="15" t="s">
         <v>52</v>
@@ -16976,8 +16955,8 @@
       <c r="A271" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B271" s="19" t="s">
-        <v>633</v>
+      <c r="B271" s="19">
+        <v>2</v>
       </c>
       <c r="C271" s="18">
         <v>43105</v>
@@ -16998,7 +16977,7 @@
         <v>76116165</v>
       </c>
       <c r="I271" s="42" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="J271" s="15" t="s">
         <v>41</v>
@@ -17010,7 +16989,7 @@
         <v>17721436606</v>
       </c>
       <c r="M271" s="42" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="N271" s="15" t="s">
         <v>52</v>
@@ -17026,8 +17005,8 @@
       <c r="A272" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B272" s="19" t="s">
-        <v>633</v>
+      <c r="B272" s="19">
+        <v>2</v>
       </c>
       <c r="C272" s="18">
         <v>43105</v>
@@ -17042,13 +17021,13 @@
         <v>53</v>
       </c>
       <c r="G272" s="42" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="H272" s="16">
         <v>76116352</v>
       </c>
       <c r="I272" s="42" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="J272" s="15" t="s">
         <v>41</v>
@@ -17076,8 +17055,8 @@
       <c r="A273" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B273" s="19" t="s">
-        <v>633</v>
+      <c r="B273" s="19">
+        <v>2</v>
       </c>
       <c r="C273" s="18">
         <v>43105</v>
@@ -17098,7 +17077,7 @@
         <v>76116670</v>
       </c>
       <c r="I273" s="42" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="J273" s="15" t="s">
         <v>41</v>
@@ -17110,7 +17089,7 @@
         <v>17721436606</v>
       </c>
       <c r="M273" s="42" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="N273" s="15" t="s">
         <v>52</v>
@@ -17126,8 +17105,8 @@
       <c r="A274" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B274" s="19" t="s">
-        <v>633</v>
+      <c r="B274" s="19">
+        <v>2</v>
       </c>
       <c r="C274" s="18">
         <v>43105</v>
@@ -17148,7 +17127,7 @@
         <v>76116691</v>
       </c>
       <c r="I274" s="42" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="J274" s="15" t="s">
         <v>41</v>
@@ -17160,7 +17139,7 @@
         <v>17721436606</v>
       </c>
       <c r="M274" s="42" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="N274" s="15" t="s">
         <v>52</v>
@@ -17176,8 +17155,8 @@
       <c r="A275" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B275" s="19" t="s">
-        <v>633</v>
+      <c r="B275" s="19">
+        <v>2</v>
       </c>
       <c r="C275" s="18">
         <v>43105</v>
@@ -17198,7 +17177,7 @@
         <v>76117525</v>
       </c>
       <c r="I275" s="42" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="J275" s="15" t="s">
         <v>41</v>
@@ -17210,7 +17189,7 @@
         <v>17721436606</v>
       </c>
       <c r="M275" s="42" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="N275" s="15" t="s">
         <v>52</v>
@@ -17226,8 +17205,8 @@
       <c r="A276" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B276" s="19" t="s">
-        <v>633</v>
+      <c r="B276" s="19">
+        <v>2</v>
       </c>
       <c r="C276" s="18">
         <v>43105</v>
@@ -17248,7 +17227,7 @@
         <v>76117532</v>
       </c>
       <c r="I276" s="42" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="J276" s="15" t="s">
         <v>41</v>
@@ -17260,7 +17239,7 @@
         <v>17721436606</v>
       </c>
       <c r="M276" s="42" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="N276" s="15" t="s">
         <v>52</v>
@@ -17276,8 +17255,8 @@
       <c r="A277" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B277" s="19" t="s">
-        <v>633</v>
+      <c r="B277" s="19">
+        <v>2</v>
       </c>
       <c r="C277" s="18">
         <v>43105</v>
@@ -17298,7 +17277,7 @@
         <v>76118028</v>
       </c>
       <c r="I277" s="42" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="J277" s="15" t="s">
         <v>41</v>
@@ -17310,7 +17289,7 @@
         <v>17721436606</v>
       </c>
       <c r="M277" s="42" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="N277" s="15" t="s">
         <v>52</v>
@@ -17326,8 +17305,8 @@
       <c r="A278" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B278" s="19" t="s">
-        <v>633</v>
+      <c r="B278" s="19">
+        <v>2</v>
       </c>
       <c r="C278" s="18">
         <v>43105</v>
@@ -17348,7 +17327,7 @@
         <v>76118291</v>
       </c>
       <c r="I278" s="42" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="J278" s="15" t="s">
         <v>41</v>
@@ -17360,7 +17339,7 @@
         <v>17721436606</v>
       </c>
       <c r="M278" s="42" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="N278" s="15" t="s">
         <v>52</v>
@@ -17376,8 +17355,8 @@
       <c r="A279" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B279" s="19" t="s">
-        <v>633</v>
+      <c r="B279" s="19">
+        <v>2</v>
       </c>
       <c r="C279" s="18">
         <v>43105</v>
@@ -17398,7 +17377,7 @@
         <v>76118925</v>
       </c>
       <c r="I279" s="42" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="J279" s="15" t="s">
         <v>41</v>
@@ -17410,7 +17389,7 @@
         <v>17721436606</v>
       </c>
       <c r="M279" s="42" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="N279" s="15" t="s">
         <v>52</v>
@@ -17426,8 +17405,8 @@
       <c r="A280" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B280" s="19" t="s">
-        <v>633</v>
+      <c r="B280" s="19">
+        <v>2</v>
       </c>
       <c r="C280" s="18">
         <v>43105</v>
@@ -17442,13 +17421,13 @@
         <v>53</v>
       </c>
       <c r="G280" s="42" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="H280" s="16">
         <v>76119039</v>
       </c>
       <c r="I280" s="42" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="J280" s="15" t="s">
         <v>41</v>
@@ -17460,7 +17439,7 @@
         <v>17721436606</v>
       </c>
       <c r="M280" s="42" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="N280" s="15" t="s">
         <v>52</v>
@@ -17476,8 +17455,8 @@
       <c r="A281" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B281" s="19" t="s">
-        <v>633</v>
+      <c r="B281" s="19">
+        <v>2</v>
       </c>
       <c r="C281" s="18">
         <v>43105</v>
@@ -17498,7 +17477,7 @@
         <v>76119301</v>
       </c>
       <c r="I281" s="42" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="J281" s="15" t="s">
         <v>41</v>
@@ -17510,7 +17489,7 @@
         <v>17721436606</v>
       </c>
       <c r="M281" s="42" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="N281" s="15" t="s">
         <v>52</v>
@@ -17526,8 +17505,8 @@
       <c r="A282" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B282" s="19" t="s">
-        <v>633</v>
+      <c r="B282" s="19">
+        <v>2</v>
       </c>
       <c r="C282" s="18">
         <v>43105</v>
@@ -17548,7 +17527,7 @@
         <v>76119326</v>
       </c>
       <c r="I282" s="42" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="J282" s="15" t="s">
         <v>41</v>
@@ -17560,7 +17539,7 @@
         <v>17721436606</v>
       </c>
       <c r="M282" s="42" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="N282" s="15" t="s">
         <v>52</v>
@@ -17576,8 +17555,8 @@
       <c r="A283" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B283" s="19" t="s">
-        <v>633</v>
+      <c r="B283" s="19">
+        <v>2</v>
       </c>
       <c r="C283" s="18">
         <v>43105</v>
@@ -17598,7 +17577,7 @@
         <v>76119369</v>
       </c>
       <c r="I283" s="42" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="J283" s="15" t="s">
         <v>41</v>
@@ -17610,7 +17589,7 @@
         <v>17721436606</v>
       </c>
       <c r="M283" s="42" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="N283" s="15" t="s">
         <v>52</v>
@@ -17626,8 +17605,8 @@
       <c r="A284" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B284" s="19" t="s">
-        <v>633</v>
+      <c r="B284" s="19">
+        <v>2</v>
       </c>
       <c r="C284" s="18">
         <v>43105</v>
@@ -17642,13 +17621,13 @@
         <v>53</v>
       </c>
       <c r="G284" s="42" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="H284" s="16">
         <v>76119620</v>
       </c>
       <c r="I284" s="42" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="J284" s="15" t="s">
         <v>41</v>
@@ -17660,7 +17639,7 @@
         <v>17721436606</v>
       </c>
       <c r="M284" s="42" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="N284" s="15" t="s">
         <v>52</v>
@@ -17676,8 +17655,8 @@
       <c r="A285" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B285" s="19" t="s">
-        <v>633</v>
+      <c r="B285" s="19">
+        <v>2</v>
       </c>
       <c r="C285" s="18">
         <v>43105</v>
@@ -17692,13 +17671,13 @@
         <v>53</v>
       </c>
       <c r="G285" s="42" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="H285" s="16">
         <v>76119721</v>
       </c>
       <c r="I285" s="42" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="J285" s="15" t="s">
         <v>41</v>
@@ -17710,7 +17689,7 @@
         <v>17721436606</v>
       </c>
       <c r="M285" s="42" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="N285" s="15" t="s">
         <v>52</v>
@@ -17726,8 +17705,8 @@
       <c r="A286" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B286" s="19" t="s">
-        <v>633</v>
+      <c r="B286" s="19">
+        <v>2</v>
       </c>
       <c r="C286" s="18">
         <v>43105</v>
@@ -17748,7 +17727,7 @@
         <v>76120023</v>
       </c>
       <c r="I286" s="42" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="J286" s="15" t="s">
         <v>41</v>
@@ -17760,7 +17739,7 @@
         <v>17721436606</v>
       </c>
       <c r="M286" s="42" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="N286" s="15" t="s">
         <v>52</v>
@@ -17776,8 +17755,8 @@
       <c r="A287" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B287" s="19" t="s">
-        <v>633</v>
+      <c r="B287" s="19">
+        <v>2</v>
       </c>
       <c r="C287" s="18">
         <v>43105</v>
@@ -17798,7 +17777,7 @@
         <v>76120101</v>
       </c>
       <c r="I287" s="42" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="J287" s="15" t="s">
         <v>41</v>
@@ -17810,7 +17789,7 @@
         <v>17721436606</v>
       </c>
       <c r="M287" s="42" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="N287" s="15" t="s">
         <v>52</v>
@@ -17826,8 +17805,8 @@
       <c r="A288" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B288" s="19" t="s">
-        <v>633</v>
+      <c r="B288" s="19">
+        <v>2</v>
       </c>
       <c r="C288" s="18">
         <v>43105</v>
@@ -17848,7 +17827,7 @@
         <v>76122022</v>
       </c>
       <c r="I288" s="42" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="J288" s="15" t="s">
         <v>41</v>
@@ -17860,7 +17839,7 @@
         <v>17721436606</v>
       </c>
       <c r="M288" s="42" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="N288" s="15" t="s">
         <v>52</v>
@@ -17876,8 +17855,8 @@
       <c r="A289" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B289" s="19" t="s">
-        <v>633</v>
+      <c r="B289" s="19">
+        <v>2</v>
       </c>
       <c r="C289" s="18">
         <v>43105</v>
@@ -17892,13 +17871,13 @@
         <v>413</v>
       </c>
       <c r="G289" s="42" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="H289" s="42">
         <v>76113672</v>
       </c>
       <c r="I289" s="42" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="J289" s="15" t="s">
         <v>41</v>
@@ -17910,7 +17889,7 @@
         <v>17721436606</v>
       </c>
       <c r="M289" s="42" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="N289" s="15" t="s">
         <v>52</v>
@@ -17926,8 +17905,8 @@
       <c r="A290" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B290" s="19" t="s">
-        <v>633</v>
+      <c r="B290" s="19">
+        <v>2</v>
       </c>
       <c r="C290" s="18">
         <v>43105</v>
@@ -17948,7 +17927,7 @@
         <v>76116101</v>
       </c>
       <c r="I290" s="49" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="J290" s="15" t="s">
         <v>41</v>
@@ -17960,7 +17939,7 @@
         <v>17721436606</v>
       </c>
       <c r="M290" s="42" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="N290" s="15" t="s">
         <v>52</v>
@@ -17976,8 +17955,8 @@
       <c r="A291" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B291" s="19" t="s">
-        <v>633</v>
+      <c r="B291" s="19">
+        <v>2</v>
       </c>
       <c r="C291" s="18">
         <v>43105</v>
@@ -17998,7 +17977,7 @@
         <v>76116102</v>
       </c>
       <c r="I291" s="49" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="J291" s="15" t="s">
         <v>41</v>
@@ -18010,7 +17989,7 @@
         <v>17721436606</v>
       </c>
       <c r="M291" s="42" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N291" s="15" t="s">
         <v>52</v>
@@ -18026,8 +18005,8 @@
       <c r="A292" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B292" s="19" t="s">
-        <v>633</v>
+      <c r="B292" s="19">
+        <v>2</v>
       </c>
       <c r="C292" s="18">
         <v>43105</v>
@@ -18048,7 +18027,7 @@
         <v>76116103</v>
       </c>
       <c r="I292" s="49" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="J292" s="15" t="s">
         <v>41</v>
@@ -18060,7 +18039,7 @@
         <v>17721436606</v>
       </c>
       <c r="M292" s="42" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="N292" s="15" t="s">
         <v>52</v>
@@ -18076,8 +18055,8 @@
       <c r="A293" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B293" s="19" t="s">
-        <v>633</v>
+      <c r="B293" s="19">
+        <v>2</v>
       </c>
       <c r="C293" s="18">
         <v>43105</v>
@@ -18092,13 +18071,13 @@
         <v>413</v>
       </c>
       <c r="G293" s="42" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="H293" s="42">
         <v>76116720</v>
       </c>
       <c r="I293" s="49" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="J293" s="15" t="s">
         <v>41</v>
@@ -18110,7 +18089,7 @@
         <v>17721436606</v>
       </c>
       <c r="M293" s="42" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="N293" s="15" t="s">
         <v>52</v>
@@ -18126,8 +18105,8 @@
       <c r="A294" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B294" s="19" t="s">
-        <v>633</v>
+      <c r="B294" s="19">
+        <v>2</v>
       </c>
       <c r="C294" s="18">
         <v>43105</v>
@@ -18142,13 +18121,13 @@
         <v>413</v>
       </c>
       <c r="G294" s="42" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="H294" s="42">
         <v>76118932</v>
       </c>
       <c r="I294" s="49" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="J294" s="15" t="s">
         <v>41</v>
@@ -18160,7 +18139,7 @@
         <v>17721436606</v>
       </c>
       <c r="M294" s="42" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="N294" s="15" t="s">
         <v>52</v>
@@ -18176,8 +18155,8 @@
       <c r="A295" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B295" s="19" t="s">
-        <v>633</v>
+      <c r="B295" s="19">
+        <v>2</v>
       </c>
       <c r="C295" s="18">
         <v>43105</v>
@@ -18198,7 +18177,7 @@
         <v>76118953</v>
       </c>
       <c r="I295" s="49" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="J295" s="15" t="s">
         <v>41</v>
@@ -18210,7 +18189,7 @@
         <v>17721436606</v>
       </c>
       <c r="M295" s="42" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="N295" s="15" t="s">
         <v>52</v>
@@ -18226,8 +18205,8 @@
       <c r="A296" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B296" s="19" t="s">
-        <v>633</v>
+      <c r="B296" s="19">
+        <v>2</v>
       </c>
       <c r="C296" s="18">
         <v>43105</v>
@@ -18242,13 +18221,13 @@
         <v>413</v>
       </c>
       <c r="G296" s="16" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="H296" s="60">
         <v>76119726</v>
       </c>
       <c r="I296" s="61" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="J296" s="15" t="s">
         <v>41</v>
@@ -18260,7 +18239,7 @@
         <v>17721436606</v>
       </c>
       <c r="M296" s="16" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="N296" s="15" t="s">
         <v>52</v>
@@ -18276,8 +18255,8 @@
       <c r="A297" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B297" s="19" t="s">
-        <v>633</v>
+      <c r="B297" s="19">
+        <v>2</v>
       </c>
       <c r="C297" s="18">
         <v>43105</v>
@@ -18292,13 +18271,13 @@
         <v>413</v>
       </c>
       <c r="G297" s="16" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H297" s="60">
         <v>76119718</v>
       </c>
       <c r="I297" s="16" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="J297" s="15" t="s">
         <v>41</v>
@@ -18310,7 +18289,7 @@
         <v>17721436606</v>
       </c>
       <c r="M297" s="16" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="N297" s="15" t="s">
         <v>52</v>
@@ -18326,8 +18305,8 @@
       <c r="A298" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B298" s="19" t="s">
-        <v>633</v>
+      <c r="B298" s="19">
+        <v>2</v>
       </c>
       <c r="C298" s="18">
         <v>43110</v>
@@ -18336,10 +18315,10 @@
         <v>42</v>
       </c>
       <c r="E298" s="15" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F298" s="15" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G298" s="16" t="s">
         <v>86</v>
@@ -18348,7 +18327,7 @@
         <v>76121738</v>
       </c>
       <c r="I298" s="61" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="J298" s="15" t="s">
         <v>41</v>
@@ -18360,7 +18339,7 @@
         <v>17721436606</v>
       </c>
       <c r="M298" s="16" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="N298" s="15" t="s">
         <v>52</v>
@@ -18376,8 +18355,8 @@
       <c r="A299" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B299" s="19" t="s">
-        <v>633</v>
+      <c r="B299" s="19">
+        <v>2</v>
       </c>
       <c r="C299" s="18">
         <v>43110</v>
@@ -18386,10 +18365,10 @@
         <v>42</v>
       </c>
       <c r="E299" s="15" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F299" s="15" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G299" s="16" t="s">
         <v>41</v>
@@ -18398,7 +18377,7 @@
         <v>76022625</v>
       </c>
       <c r="I299" s="16" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="J299" s="15" t="s">
         <v>41</v>
@@ -18416,7 +18395,7 @@
         <v>52</v>
       </c>
       <c r="O299" s="16" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="P299" s="15" t="s">
         <v>174</v>
@@ -20256,13 +20235,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -20273,7 +20252,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -20284,7 +20263,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -20295,7 +20274,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -20311,7 +20290,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -20322,7 +20301,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -20338,7 +20317,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -20349,7 +20328,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -20360,7 +20339,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -20371,7 +20350,7 @@
         <v>43099</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -20382,7 +20361,7 @@
         <v>43100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -20398,7 +20377,7 @@
         <v>43107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/实施周数据-李登林组/1月/2周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/1月/2周/实施周数据-李登林组-别伟超.xlsx
@@ -2206,11 +2206,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2296,13 +2296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2357,13 +2350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2405,13 +2391,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2419,14 +2398,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2441,6 +2427,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2515,25 +2515,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2551,7 +2557,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2581,73 +2629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2677,7 +2659,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3151,10 +3151,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3163,138 +3163,138 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
@@ -4444,10 +4444,10 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D300" sqref="D300"/>
+      <selection pane="bottomLeft" activeCell="Q268" sqref="Q268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16846,7 +16846,9 @@
       <c r="N268" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="O268" s="12"/>
+      <c r="O268" s="12">
+        <v>13962566661</v>
+      </c>
       <c r="P268" s="8" t="s">
         <v>171</v>
       </c>
